--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.094754869048643</v>
+        <v>1.094754869048472</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1897851725942417</v>
+        <v>0.1897851725943696</v>
       </c>
       <c r="E2">
-        <v>0.08630597898582337</v>
+        <v>0.08630597898579495</v>
       </c>
       <c r="F2">
-        <v>5.279839797550267</v>
+        <v>5.279839797550295</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2503501256325542</v>
+        <v>0.2503501256325507</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.978825657562481</v>
+        <v>4.97882565756251</v>
       </c>
       <c r="K2">
-        <v>2.683033040283419</v>
+        <v>2.683033040283448</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.943955468011751</v>
+        <v>0.9439554680116942</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.159485467365073</v>
+        <v>0.1594854673654282</v>
       </c>
       <c r="E3">
-        <v>0.07452791394415925</v>
+        <v>0.07452791394419123</v>
       </c>
       <c r="F3">
-        <v>4.474356442652152</v>
+        <v>4.474356442652208</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.256907407547498</v>
+        <v>0.2569074075474944</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.239289520951075</v>
+        <v>4.239289520951047</v>
       </c>
       <c r="K3">
-        <v>2.276261827991235</v>
+        <v>2.27626182799122</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8528641188831614</v>
+        <v>0.8528641188831045</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,22 +497,22 @@
         <v>0.1423652267302629</v>
       </c>
       <c r="E4">
-        <v>0.06765831053674987</v>
+        <v>0.06765831053673921</v>
       </c>
       <c r="F4">
-        <v>4.009309090749838</v>
+        <v>4.009309090749866</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2633070153302377</v>
+        <v>0.2633070153302342</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.801407273403413</v>
+        <v>3.80140727340347</v>
       </c>
       <c r="K4">
         <v>2.036556205393993</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8160432977934704</v>
+        <v>0.8160432977934988</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1356939059530333</v>
+        <v>0.1356939059530049</v>
       </c>
       <c r="E5">
-        <v>0.0649287490301802</v>
+        <v>0.06492874903026902</v>
       </c>
       <c r="F5">
         <v>3.825876403983614</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2664379515989737</v>
+        <v>0.266437951598963</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>3.626212712515326</v>
       </c>
       <c r="K5">
-        <v>1.940903648583003</v>
+        <v>1.94090364858296</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8099453038000206</v>
+        <v>0.8099453037999069</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1346028424880075</v>
+        <v>0.134602842488377</v>
       </c>
       <c r="E6">
-        <v>0.06447919699586535</v>
+        <v>0.06447919699581206</v>
       </c>
       <c r="F6">
-        <v>3.795750050786154</v>
+        <v>3.795750050786125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.597296627185415</v>
+        <v>3.597296627185358</v>
       </c>
       <c r="K6">
-        <v>1.925130366743474</v>
+        <v>1.92513036674346</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8523664201779013</v>
+        <v>0.8523664201779582</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>0.142274098792555</v>
       </c>
       <c r="E7">
-        <v>0.06762124037539508</v>
+        <v>0.06762124037539152</v>
       </c>
       <c r="F7">
         <v>4.006812237888852</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2633472104701013</v>
+        <v>0.2633472104700907</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.799032373033441</v>
+        <v>3.799032373033413</v>
       </c>
       <c r="K7">
-        <v>2.035258575200714</v>
+        <v>2.035258575200729</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.042396672892465</v>
+        <v>1.042396672892494</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1789844317636948</v>
+        <v>0.1789844317637517</v>
       </c>
       <c r="E8">
-        <v>0.0821552556857732</v>
+        <v>0.08215525568570214</v>
       </c>
       <c r="F8">
         <v>4.995083132870889</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2520695708569107</v>
+        <v>0.2520695708568965</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.719919674779788</v>
+        <v>4.719919674779845</v>
       </c>
       <c r="K8">
-        <v>2.54035895731235</v>
+        <v>2.540358957312336</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.431397136062486</v>
+        <v>1.431397136062628</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2667923064588962</v>
+        <v>0.2667923064592514</v>
       </c>
       <c r="E9">
-        <v>0.1148625947702158</v>
+        <v>0.1148625947702762</v>
       </c>
       <c r="F9">
-        <v>7.24692479745525</v>
+        <v>7.246924797455335</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.2530655784021363</v>
+        <v>0.2530655784021292</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.703304994396518</v>
+        <v>6.703304994396575</v>
       </c>
       <c r="K9">
-        <v>3.640072589675896</v>
+        <v>3.640072589675924</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.735659236308493</v>
+        <v>1.735659236308379</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3491137378118907</v>
+        <v>0.3491137378120754</v>
       </c>
       <c r="E10">
-        <v>0.1443240500304839</v>
+        <v>0.1443240500304768</v>
       </c>
       <c r="F10">
         <v>9.251517672835519</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2762404268203582</v>
+        <v>0.2762404268203724</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.366778949235282</v>
+        <v>8.366778949235254</v>
       </c>
       <c r="K10">
-        <v>4.573162222344109</v>
+        <v>4.573162222344081</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.881094420292925</v>
+        <v>1.88109442029301</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0.393551562298299</v>
       </c>
       <c r="E11">
-        <v>0.1600888652313124</v>
+        <v>0.1600888652312911</v>
       </c>
       <c r="F11">
-        <v>10.29927679576622</v>
+        <v>10.29927679576616</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.20531102852479</v>
+        <v>9.205311028524733</v>
       </c>
       <c r="K11">
-        <v>5.046728927417064</v>
+        <v>5.046728927417007</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.937581702944783</v>
+        <v>1.93758170294484</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,16 +801,16 @@
         <v>0.4118311498742599</v>
       </c>
       <c r="E12">
-        <v>0.1665781293196531</v>
+        <v>0.1665781293196673</v>
       </c>
       <c r="F12">
-        <v>10.72402758374091</v>
+        <v>10.72402758374093</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.303289563921382</v>
+        <v>0.3032895639213748</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>9.539843457914031</v>
       </c>
       <c r="K12">
-        <v>5.236198008558716</v>
+        <v>5.236198008558688</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.92534457516058</v>
+        <v>1.925344575160636</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4078198087262166</v>
+        <v>0.4078198087263871</v>
       </c>
       <c r="E13">
-        <v>0.1651533252977515</v>
+        <v>0.1651533252977764</v>
       </c>
       <c r="F13">
-        <v>10.63111871429021</v>
+        <v>10.63111871429027</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3013656194428691</v>
+        <v>0.301365619442862</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.466924289251693</v>
+        <v>9.466924289251807</v>
       </c>
       <c r="K13">
-        <v>5.194873765653682</v>
+        <v>5.194873765653625</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.885710277835727</v>
+        <v>1.885710277835699</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3950228667278566</v>
+        <v>0.3950228667276861</v>
       </c>
       <c r="E14">
-        <v>0.1606108941349689</v>
+        <v>0.1606108941349902</v>
       </c>
       <c r="F14">
-        <v>10.33359521028908</v>
+        <v>10.33359521028905</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.232452123060511</v>
+        <v>9.23245212306054</v>
       </c>
       <c r="K14">
-        <v>5.062089765914891</v>
+        <v>5.062089765914919</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.86163267163306</v>
+        <v>1.861632671632975</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3873909399771946</v>
+        <v>0.3873909399777773</v>
       </c>
       <c r="E15">
-        <v>0.1579033905466893</v>
+        <v>0.1579033905466929</v>
       </c>
       <c r="F15">
         <v>10.15532694328277</v>
@@ -933,7 +933,7 @@
         <v>9.09124864519589</v>
       </c>
       <c r="K15">
-        <v>4.982195679153904</v>
+        <v>4.982195679153932</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.726326441663076</v>
+        <v>1.726326441663048</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3463833265329015</v>
+        <v>0.346383326533271</v>
       </c>
       <c r="E16">
         <v>0.143354407326008</v>
       </c>
       <c r="F16">
-        <v>9.186405378899536</v>
+        <v>9.186405378899508</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2752240794332153</v>
+        <v>0.2752240794331939</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>8.314013528433634</v>
       </c>
       <c r="K16">
-        <v>4.543430490090316</v>
+        <v>4.543430490090259</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.64535338337663</v>
+        <v>1.645353383376602</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.323268371002797</v>
+        <v>0.3232683710027828</v>
       </c>
       <c r="E17">
-        <v>0.1351328170894313</v>
+        <v>0.1351328170894384</v>
       </c>
       <c r="F17">
         <v>8.631587849997203</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2672367488415475</v>
+        <v>0.2672367488415546</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.599409297804044</v>
+        <v>1.599409297804158</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3105952789349686</v>
+        <v>0.3105952789345565</v>
       </c>
       <c r="E18">
-        <v>0.1306116694082426</v>
+        <v>0.1306116694083315</v>
       </c>
       <c r="F18">
-        <v>8.324584017808377</v>
+        <v>8.324584017808519</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.607911470722939</v>
+        <v>7.607911470722968</v>
       </c>
       <c r="K18">
         <v>4.146383085223533</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.583952025223056</v>
+        <v>1.583952025223198</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,25 +1067,25 @@
         <v>0.3064010563956145</v>
       </c>
       <c r="E19">
-        <v>0.1291126075308746</v>
+        <v>0.1291126075308284</v>
       </c>
       <c r="F19">
-        <v>8.222524525383079</v>
+        <v>8.222524525383108</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2621550830859007</v>
+        <v>0.2621550830858794</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.523309832227369</v>
+        <v>7.523309832227341</v>
       </c>
       <c r="K19">
-        <v>4.09891619172268</v>
+        <v>4.098916191722651</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.653905605490706</v>
+        <v>1.653905605490593</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3256620964059209</v>
+        <v>0.3256620964057362</v>
       </c>
       <c r="E20">
-        <v>0.1359855378523918</v>
+        <v>0.1359855378523562</v>
       </c>
       <c r="F20">
-        <v>8.68934748249012</v>
+        <v>8.689347482490177</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.2680107170808128</v>
+        <v>0.2680107170808057</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.908549085471719</v>
+        <v>7.908549085471748</v>
       </c>
       <c r="K20">
         <v>4.315244766809371</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.897309215580975</v>
+        <v>1.89730921558106</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3987374044046277</v>
+        <v>0.3987374044048124</v>
       </c>
       <c r="E21">
-        <v>0.1619290193096106</v>
+        <v>0.161929019309575</v>
       </c>
       <c r="F21">
-        <v>10.42013477564706</v>
+        <v>10.4201347756472</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.2971003942565957</v>
+        <v>0.2971003942566171</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.300804690455408</v>
+        <v>9.300804690455436</v>
       </c>
       <c r="K21">
         <v>5.100783491260785</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064998559748261</v>
+        <v>2.064998559748318</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4553948134920915</v>
+        <v>0.4553948134920773</v>
       </c>
       <c r="E22">
-        <v>0.1820990272593228</v>
+        <v>0.1820990272593974</v>
       </c>
       <c r="F22">
-        <v>11.72255162324106</v>
+        <v>11.72255162324109</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.3256490181646257</v>
+        <v>0.3256490181646328</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>10.31484313563092</v>
       </c>
       <c r="K22">
-        <v>5.676218236012176</v>
+        <v>5.676218236012147</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.974516252085749</v>
+        <v>1.974516252085692</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4241159253997466</v>
+        <v>0.4241159253993771</v>
       </c>
       <c r="E23">
-        <v>0.1709452637433202</v>
+        <v>0.1709452637433309</v>
       </c>
       <c r="F23">
-        <v>11.0075318206593</v>
+        <v>11.00753182065915</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3093293516941458</v>
+        <v>0.3093293516941529</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.761483429076776</v>
+        <v>9.761483429076719</v>
       </c>
       <c r="K23">
         <v>5.361887744039421</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.650037278135926</v>
+        <v>1.65003727813567</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3245780041519737</v>
+        <v>0.3245780041520021</v>
       </c>
       <c r="E24">
-        <v>0.1355993942925622</v>
+        <v>0.1355993942925728</v>
       </c>
       <c r="F24">
-        <v>8.663197638458257</v>
+        <v>8.663197638458115</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.2676586183550427</v>
+        <v>0.2676586183550214</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.887085019642939</v>
+        <v>7.887085019642967</v>
       </c>
       <c r="K24">
         <v>4.303179412082272</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.323684534457925</v>
+        <v>1.32368453445801</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2406692052594082</v>
+        <v>0.2406692052595645</v>
       </c>
       <c r="E25">
-        <v>0.1053355809877168</v>
+        <v>0.1053355809877132</v>
       </c>
       <c r="F25">
-        <v>6.590916273912285</v>
+        <v>6.590916273912313</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.2496180199259896</v>
+        <v>0.2496180199259861</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.139583977670355</v>
+        <v>6.13958397767027</v>
       </c>
       <c r="K25">
-        <v>3.325991452821484</v>
+        <v>3.325991452821526</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.094754869048472</v>
+        <v>1.094754869048643</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1897851725943696</v>
+        <v>0.1897851725942417</v>
       </c>
       <c r="E2">
-        <v>0.08630597898579495</v>
+        <v>0.08630597898582337</v>
       </c>
       <c r="F2">
-        <v>5.279839797550295</v>
+        <v>5.279839797550267</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2503501256325507</v>
+        <v>0.2503501256325542</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.97882565756251</v>
+        <v>4.978825657562481</v>
       </c>
       <c r="K2">
-        <v>2.683033040283448</v>
+        <v>2.683033040283419</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9439554680116942</v>
+        <v>0.943955468011751</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1594854673654282</v>
+        <v>0.159485467365073</v>
       </c>
       <c r="E3">
-        <v>0.07452791394419123</v>
+        <v>0.07452791394415925</v>
       </c>
       <c r="F3">
-        <v>4.474356442652208</v>
+        <v>4.474356442652152</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2569074075474944</v>
+        <v>0.256907407547498</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.239289520951047</v>
+        <v>4.239289520951075</v>
       </c>
       <c r="K3">
-        <v>2.27626182799122</v>
+        <v>2.276261827991235</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8528641188831045</v>
+        <v>0.8528641188831614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,22 +497,22 @@
         <v>0.1423652267302629</v>
       </c>
       <c r="E4">
-        <v>0.06765831053673921</v>
+        <v>0.06765831053674987</v>
       </c>
       <c r="F4">
-        <v>4.009309090749866</v>
+        <v>4.009309090749838</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2633070153302342</v>
+        <v>0.2633070153302377</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.80140727340347</v>
+        <v>3.801407273403413</v>
       </c>
       <c r="K4">
         <v>2.036556205393993</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8160432977934988</v>
+        <v>0.8160432977934704</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1356939059530049</v>
+        <v>0.1356939059530333</v>
       </c>
       <c r="E5">
-        <v>0.06492874903026902</v>
+        <v>0.0649287490301802</v>
       </c>
       <c r="F5">
         <v>3.825876403983614</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.266437951598963</v>
+        <v>0.2664379515989737</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>3.626212712515326</v>
       </c>
       <c r="K5">
-        <v>1.94090364858296</v>
+        <v>1.940903648583003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8099453037999069</v>
+        <v>0.8099453038000206</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.134602842488377</v>
+        <v>0.1346028424880075</v>
       </c>
       <c r="E6">
-        <v>0.06447919699581206</v>
+        <v>0.06447919699586535</v>
       </c>
       <c r="F6">
-        <v>3.795750050786125</v>
+        <v>3.795750050786154</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.597296627185358</v>
+        <v>3.597296627185415</v>
       </c>
       <c r="K6">
-        <v>1.92513036674346</v>
+        <v>1.925130366743474</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8523664201779582</v>
+        <v>0.8523664201779013</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>0.142274098792555</v>
       </c>
       <c r="E7">
-        <v>0.06762124037539152</v>
+        <v>0.06762124037539508</v>
       </c>
       <c r="F7">
         <v>4.006812237888852</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2633472104700907</v>
+        <v>0.2633472104701013</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.799032373033413</v>
+        <v>3.799032373033441</v>
       </c>
       <c r="K7">
-        <v>2.035258575200729</v>
+        <v>2.035258575200714</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.042396672892494</v>
+        <v>1.042396672892465</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1789844317637517</v>
+        <v>0.1789844317636948</v>
       </c>
       <c r="E8">
-        <v>0.08215525568570214</v>
+        <v>0.0821552556857732</v>
       </c>
       <c r="F8">
         <v>4.995083132870889</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2520695708568965</v>
+        <v>0.2520695708569107</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.719919674779845</v>
+        <v>4.719919674779788</v>
       </c>
       <c r="K8">
-        <v>2.540358957312336</v>
+        <v>2.54035895731235</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.431397136062628</v>
+        <v>1.431397136062486</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2667923064592514</v>
+        <v>0.2667923064588962</v>
       </c>
       <c r="E9">
-        <v>0.1148625947702762</v>
+        <v>0.1148625947702158</v>
       </c>
       <c r="F9">
-        <v>7.246924797455335</v>
+        <v>7.24692479745525</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.2530655784021292</v>
+        <v>0.2530655784021363</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.703304994396575</v>
+        <v>6.703304994396518</v>
       </c>
       <c r="K9">
-        <v>3.640072589675924</v>
+        <v>3.640072589675896</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.735659236308379</v>
+        <v>1.735659236308493</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3491137378120754</v>
+        <v>0.3491137378118907</v>
       </c>
       <c r="E10">
-        <v>0.1443240500304768</v>
+        <v>0.1443240500304839</v>
       </c>
       <c r="F10">
         <v>9.251517672835519</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2762404268203724</v>
+        <v>0.2762404268203582</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.366778949235254</v>
+        <v>8.366778949235282</v>
       </c>
       <c r="K10">
-        <v>4.573162222344081</v>
+        <v>4.573162222344109</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.88109442029301</v>
+        <v>1.881094420292925</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0.393551562298299</v>
       </c>
       <c r="E11">
-        <v>0.1600888652312911</v>
+        <v>0.1600888652313124</v>
       </c>
       <c r="F11">
-        <v>10.29927679576616</v>
+        <v>10.29927679576622</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.205311028524733</v>
+        <v>9.20531102852479</v>
       </c>
       <c r="K11">
-        <v>5.046728927417007</v>
+        <v>5.046728927417064</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.93758170294484</v>
+        <v>1.937581702944783</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,16 +801,16 @@
         <v>0.4118311498742599</v>
       </c>
       <c r="E12">
-        <v>0.1665781293196673</v>
+        <v>0.1665781293196531</v>
       </c>
       <c r="F12">
-        <v>10.72402758374093</v>
+        <v>10.72402758374091</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3032895639213748</v>
+        <v>0.303289563921382</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>9.539843457914031</v>
       </c>
       <c r="K12">
-        <v>5.236198008558688</v>
+        <v>5.236198008558716</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.925344575160636</v>
+        <v>1.92534457516058</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4078198087263871</v>
+        <v>0.4078198087262166</v>
       </c>
       <c r="E13">
-        <v>0.1651533252977764</v>
+        <v>0.1651533252977515</v>
       </c>
       <c r="F13">
-        <v>10.63111871429027</v>
+        <v>10.63111871429021</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.301365619442862</v>
+        <v>0.3013656194428691</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.466924289251807</v>
+        <v>9.466924289251693</v>
       </c>
       <c r="K13">
-        <v>5.194873765653625</v>
+        <v>5.194873765653682</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.885710277835699</v>
+        <v>1.885710277835727</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3950228667276861</v>
+        <v>0.3950228667278566</v>
       </c>
       <c r="E14">
-        <v>0.1606108941349902</v>
+        <v>0.1606108941349689</v>
       </c>
       <c r="F14">
-        <v>10.33359521028905</v>
+        <v>10.33359521028908</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.23245212306054</v>
+        <v>9.232452123060511</v>
       </c>
       <c r="K14">
-        <v>5.062089765914919</v>
+        <v>5.062089765914891</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.861632671632975</v>
+        <v>1.86163267163306</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3873909399777773</v>
+        <v>0.3873909399771946</v>
       </c>
       <c r="E15">
-        <v>0.1579033905466929</v>
+        <v>0.1579033905466893</v>
       </c>
       <c r="F15">
         <v>10.15532694328277</v>
@@ -933,7 +933,7 @@
         <v>9.09124864519589</v>
       </c>
       <c r="K15">
-        <v>4.982195679153932</v>
+        <v>4.982195679153904</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.726326441663048</v>
+        <v>1.726326441663076</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.346383326533271</v>
+        <v>0.3463833265329015</v>
       </c>
       <c r="E16">
         <v>0.143354407326008</v>
       </c>
       <c r="F16">
-        <v>9.186405378899508</v>
+        <v>9.186405378899536</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2752240794331939</v>
+        <v>0.2752240794332153</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>8.314013528433634</v>
       </c>
       <c r="K16">
-        <v>4.543430490090259</v>
+        <v>4.543430490090316</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.645353383376602</v>
+        <v>1.64535338337663</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3232683710027828</v>
+        <v>0.323268371002797</v>
       </c>
       <c r="E17">
-        <v>0.1351328170894384</v>
+        <v>0.1351328170894313</v>
       </c>
       <c r="F17">
         <v>8.631587849997203</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2672367488415546</v>
+        <v>0.2672367488415475</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.599409297804158</v>
+        <v>1.599409297804044</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3105952789345565</v>
+        <v>0.3105952789349686</v>
       </c>
       <c r="E18">
-        <v>0.1306116694083315</v>
+        <v>0.1306116694082426</v>
       </c>
       <c r="F18">
-        <v>8.324584017808519</v>
+        <v>8.324584017808377</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.607911470722968</v>
+        <v>7.607911470722939</v>
       </c>
       <c r="K18">
         <v>4.146383085223533</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.583952025223198</v>
+        <v>1.583952025223056</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,25 +1067,25 @@
         <v>0.3064010563956145</v>
       </c>
       <c r="E19">
-        <v>0.1291126075308284</v>
+        <v>0.1291126075308746</v>
       </c>
       <c r="F19">
-        <v>8.222524525383108</v>
+        <v>8.222524525383079</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2621550830858794</v>
+        <v>0.2621550830859007</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.523309832227341</v>
+        <v>7.523309832227369</v>
       </c>
       <c r="K19">
-        <v>4.098916191722651</v>
+        <v>4.09891619172268</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.653905605490593</v>
+        <v>1.653905605490706</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3256620964057362</v>
+        <v>0.3256620964059209</v>
       </c>
       <c r="E20">
-        <v>0.1359855378523562</v>
+        <v>0.1359855378523918</v>
       </c>
       <c r="F20">
-        <v>8.689347482490177</v>
+        <v>8.68934748249012</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.2680107170808057</v>
+        <v>0.2680107170808128</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.908549085471748</v>
+        <v>7.908549085471719</v>
       </c>
       <c r="K20">
         <v>4.315244766809371</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.89730921558106</v>
+        <v>1.897309215580975</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3987374044048124</v>
+        <v>0.3987374044046277</v>
       </c>
       <c r="E21">
-        <v>0.161929019309575</v>
+        <v>0.1619290193096106</v>
       </c>
       <c r="F21">
-        <v>10.4201347756472</v>
+        <v>10.42013477564706</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.2971003942566171</v>
+        <v>0.2971003942565957</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.300804690455436</v>
+        <v>9.300804690455408</v>
       </c>
       <c r="K21">
         <v>5.100783491260785</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064998559748318</v>
+        <v>2.064998559748261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4553948134920773</v>
+        <v>0.4553948134920915</v>
       </c>
       <c r="E22">
-        <v>0.1820990272593974</v>
+        <v>0.1820990272593228</v>
       </c>
       <c r="F22">
-        <v>11.72255162324109</v>
+        <v>11.72255162324106</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.3256490181646328</v>
+        <v>0.3256490181646257</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>10.31484313563092</v>
       </c>
       <c r="K22">
-        <v>5.676218236012147</v>
+        <v>5.676218236012176</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.974516252085692</v>
+        <v>1.974516252085749</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4241159253993771</v>
+        <v>0.4241159253997466</v>
       </c>
       <c r="E23">
-        <v>0.1709452637433309</v>
+        <v>0.1709452637433202</v>
       </c>
       <c r="F23">
-        <v>11.00753182065915</v>
+        <v>11.0075318206593</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3093293516941529</v>
+        <v>0.3093293516941458</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.761483429076719</v>
+        <v>9.761483429076776</v>
       </c>
       <c r="K23">
         <v>5.361887744039421</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.65003727813567</v>
+        <v>1.650037278135926</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3245780041520021</v>
+        <v>0.3245780041519737</v>
       </c>
       <c r="E24">
-        <v>0.1355993942925728</v>
+        <v>0.1355993942925622</v>
       </c>
       <c r="F24">
-        <v>8.663197638458115</v>
+        <v>8.663197638458257</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.2676586183550214</v>
+        <v>0.2676586183550427</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.887085019642967</v>
+        <v>7.887085019642939</v>
       </c>
       <c r="K24">
         <v>4.303179412082272</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.32368453445801</v>
+        <v>1.323684534457925</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2406692052595645</v>
+        <v>0.2406692052594082</v>
       </c>
       <c r="E25">
-        <v>0.1053355809877132</v>
+        <v>0.1053355809877168</v>
       </c>
       <c r="F25">
-        <v>6.590916273912313</v>
+        <v>6.590916273912285</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.2496180199259861</v>
+        <v>0.2496180199259896</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.13958397767027</v>
+        <v>6.139583977670355</v>
       </c>
       <c r="K25">
-        <v>3.325991452821526</v>
+        <v>3.325991452821484</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.094754869048643</v>
+        <v>1.090302626342805</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1897851725942417</v>
+        <v>0.1875585129717052</v>
       </c>
       <c r="E2">
-        <v>0.08630597898582337</v>
+        <v>0.08062446004325352</v>
       </c>
       <c r="F2">
-        <v>5.279839797550267</v>
+        <v>5.233583628113848</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006921583963623567</v>
       </c>
       <c r="H2">
-        <v>0.2503501256325542</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2562722023366675</v>
       </c>
       <c r="J2">
-        <v>4.978825657562481</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.683033040283419</v>
+        <v>4.916319661100118</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.653770748141923</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.943955468011751</v>
+        <v>0.9401781616899996</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.159485467365073</v>
+        <v>0.1583915942335921</v>
       </c>
       <c r="E3">
-        <v>0.07452791394415925</v>
+        <v>0.06928489837486751</v>
       </c>
       <c r="F3">
-        <v>4.474356442652152</v>
+        <v>4.444299534150616</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007106645014803533</v>
       </c>
       <c r="H3">
-        <v>0.256907407547498</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2637944033648338</v>
       </c>
       <c r="J3">
-        <v>4.239289520951075</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.276261827991235</v>
+        <v>4.18624853110353</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.251971163622002</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8528641188831614</v>
+        <v>0.8494832934764531</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1423652267302629</v>
+        <v>0.1419389386548175</v>
       </c>
       <c r="E4">
-        <v>0.06765831053674987</v>
+        <v>0.06266599245966731</v>
       </c>
       <c r="F4">
-        <v>4.009309090749838</v>
+        <v>3.988676668680796</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000722049163002953</v>
       </c>
       <c r="H4">
-        <v>0.2633070153302377</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2707624189569628</v>
       </c>
       <c r="J4">
-        <v>3.801407273403413</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.036556205393993</v>
+        <v>3.753857563895565</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.015131845651055</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8160432977934704</v>
+        <v>0.8128209028375295</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1356939059530333</v>
+        <v>0.1355349113891435</v>
       </c>
       <c r="E5">
-        <v>0.0649287490301802</v>
+        <v>0.06003510723398264</v>
       </c>
       <c r="F5">
-        <v>3.825876403983614</v>
+        <v>3.808991439699582</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007267083067372929</v>
       </c>
       <c r="H5">
-        <v>0.2664379515989737</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2741209168130467</v>
       </c>
       <c r="J5">
-        <v>3.626212712515326</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.940903648583003</v>
+        <v>3.58084326130637</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.920613336264338</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8099453038000206</v>
+        <v>0.8067490598955942</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1346028424880075</v>
+        <v>0.134488000605117</v>
       </c>
       <c r="E6">
-        <v>0.06447919699586535</v>
+        <v>0.05960175867149076</v>
       </c>
       <c r="F6">
-        <v>3.795750050786154</v>
+        <v>3.779482660069874</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007274835186029406</v>
       </c>
       <c r="H6">
-        <v>0.2669875186303798</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2747080733156686</v>
       </c>
       <c r="J6">
-        <v>3.597296627185415</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.925130366743474</v>
+        <v>3.552286297324144</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.9050266226145</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8523664201779013</v>
+        <v>0.8489877425785721</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.142274098792555</v>
+        <v>0.1418514321839837</v>
       </c>
       <c r="E7">
-        <v>0.06762124037539508</v>
+        <v>0.06263026585376252</v>
       </c>
       <c r="F7">
-        <v>4.006812237888852</v>
+        <v>3.986230688961115</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007221119005649751</v>
       </c>
       <c r="H7">
-        <v>0.2633472104701013</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2708056972854678</v>
       </c>
       <c r="J7">
-        <v>3.799032373033441</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2.035258575200714</v>
+        <v>3.751512273868144</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.013849632701238</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.042396672892465</v>
+        <v>1.038181824020654</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1789844317636948</v>
+        <v>0.177155732536292</v>
       </c>
       <c r="E8">
-        <v>0.0821552556857732</v>
+        <v>0.07662959900298105</v>
       </c>
       <c r="F8">
-        <v>4.995083132870889</v>
+        <v>4.954547237862187</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006985443074783091</v>
       </c>
       <c r="H8">
-        <v>0.2520695708569107</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2583307101902328</v>
       </c>
       <c r="J8">
-        <v>4.719919674779788</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.54035895731235</v>
+        <v>4.660759694374207</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.512858474838893</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.431397136062486</v>
+        <v>1.425308861395877</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2667923064588962</v>
+        <v>0.2618351172591389</v>
       </c>
       <c r="E9">
-        <v>0.1148625947702158</v>
+        <v>0.1080633750411266</v>
       </c>
       <c r="F9">
-        <v>7.24692479745525</v>
+        <v>7.16059821119515</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006516589646856641</v>
       </c>
       <c r="H9">
-        <v>0.2530655784021363</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2566589165573703</v>
       </c>
       <c r="J9">
-        <v>6.703304994396518</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3.640072589675896</v>
+        <v>6.617248212509395</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.598295076565648</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.735659236308493</v>
+        <v>1.727836570109019</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3491137378118907</v>
+        <v>0.3412848013858678</v>
       </c>
       <c r="E10">
-        <v>0.1443240500304839</v>
+        <v>0.1362697340208214</v>
       </c>
       <c r="F10">
-        <v>9.251517672835519</v>
+        <v>9.121606198180956</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006151329335143417</v>
       </c>
       <c r="H10">
-        <v>0.2762404268203582</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2773826970481181</v>
       </c>
       <c r="J10">
-        <v>8.366778949235282</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4.573162222344109</v>
+        <v>8.254886650660637</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>4.517468852902823</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.881094420292925</v>
+        <v>1.872303847714363</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.393551562298299</v>
+        <v>0.3841314264894748</v>
       </c>
       <c r="E11">
-        <v>0.1600888652313124</v>
+        <v>0.1513092653173693</v>
       </c>
       <c r="F11">
-        <v>10.29927679576622</v>
+        <v>10.14464255044609</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005974413308679199</v>
       </c>
       <c r="H11">
-        <v>0.294723126203003</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2945085043156581</v>
       </c>
       <c r="J11">
-        <v>9.20531102852479</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>5.046728927417064</v>
+        <v>9.078665294308905</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>4.983022271966547</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.937581702944783</v>
+        <v>1.928381511785943</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4118311498742599</v>
+        <v>0.4017402681305242</v>
       </c>
       <c r="E12">
-        <v>0.1665781293196531</v>
+        <v>0.1574871539239275</v>
       </c>
       <c r="F12">
-        <v>10.72402758374091</v>
+        <v>10.55886036375915</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005904999046879123</v>
       </c>
       <c r="H12">
-        <v>0.303289563921382</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.30250355563863</v>
       </c>
       <c r="J12">
-        <v>9.539843457914031</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>5.236198008558716</v>
+        <v>9.406891235923297</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>5.169054028702277</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.92534457516058</v>
+        <v>1.916234949029615</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4078198087262166</v>
+        <v>0.3978770877425575</v>
       </c>
       <c r="E13">
-        <v>0.1651533252977515</v>
+        <v>0.1561314027772767</v>
       </c>
       <c r="F13">
-        <v>10.63111871429021</v>
+        <v>10.46828356446372</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005920075435982365</v>
       </c>
       <c r="H13">
-        <v>0.3013656194428691</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3007057878595205</v>
       </c>
       <c r="J13">
-        <v>9.466924289251693</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5.194873765653682</v>
+        <v>9.335369417809062</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.128491970743596</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.885710277835727</v>
+        <v>1.876887017915749</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3950228667278566</v>
+        <v>0.3855491469210932</v>
       </c>
       <c r="E14">
-        <v>0.1606108941349689</v>
+        <v>0.1518065374095592</v>
       </c>
       <c r="F14">
-        <v>10.33359521028908</v>
+        <v>10.17812186471383</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005968757756922705</v>
       </c>
       <c r="H14">
-        <v>0.2953932253547151</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2951329419671964</v>
       </c>
       <c r="J14">
-        <v>9.232452123060511</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>5.062089765914891</v>
+        <v>9.105304438031027</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>4.998109769138722</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.86163267163306</v>
+        <v>1.852978466134203</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3873909399771946</v>
+        <v>0.3781944584678314</v>
       </c>
       <c r="E15">
-        <v>0.1579033905466893</v>
+        <v>0.1492268967555432</v>
       </c>
       <c r="F15">
-        <v>10.15532694328277</v>
+        <v>10.00419053130355</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005998228121070755</v>
       </c>
       <c r="H15">
-        <v>0.29195550706212</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2919314977368757</v>
       </c>
       <c r="J15">
-        <v>9.09124864519589</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.982195679153904</v>
+        <v>8.966694472262247</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>4.91962752662846</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.726326441663076</v>
+        <v>1.718562214386225</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3463833265329015</v>
+        <v>0.3386507352768433</v>
       </c>
       <c r="E16">
-        <v>0.143354407326008</v>
+        <v>0.1353433664676373</v>
       </c>
       <c r="F16">
-        <v>9.186405378899536</v>
+        <v>9.057978335754541</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006162609753798676</v>
       </c>
       <c r="H16">
-        <v>0.2752240794332153</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2764485553134435</v>
       </c>
       <c r="J16">
-        <v>8.314013528433634</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4.543430490090316</v>
+        <v>8.203004836989805</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>4.488215676502506</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.64535338337663</v>
+        <v>1.638080348008316</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.323268371002797</v>
+        <v>0.3163467690573327</v>
       </c>
       <c r="E17">
-        <v>0.1351328170894313</v>
+        <v>0.1274829766487855</v>
       </c>
       <c r="F17">
-        <v>8.631587849997203</v>
+        <v>8.515596907973475</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000626020064633888</v>
       </c>
       <c r="H17">
-        <v>0.2672367488415475</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2691533292447303</v>
       </c>
       <c r="J17">
-        <v>7.861121302065243</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>4.288586644215798</v>
+        <v>7.757505067408857</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.237368819536101</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.599409297804044</v>
+        <v>1.592403402867717</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3105952789349686</v>
+        <v>0.3041156130101683</v>
       </c>
       <c r="E18">
-        <v>0.1306116694082426</v>
+        <v>0.1231562767763066</v>
       </c>
       <c r="F18">
-        <v>8.324584017808377</v>
+        <v>8.215324411962058</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006315389409815534</v>
       </c>
       <c r="H18">
-        <v>0.2633562485681438</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.265650049116843</v>
       </c>
       <c r="J18">
-        <v>7.607911470722939</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4.146383085223533</v>
+        <v>7.508288974758159</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4.097319350046774</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.583952025223056</v>
+        <v>1.57703429004016</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3064010563956145</v>
+        <v>0.3000673661244235</v>
       </c>
       <c r="E19">
-        <v>0.1291126075308746</v>
+        <v>0.1217210616870013</v>
       </c>
       <c r="F19">
-        <v>8.222524525383079</v>
+        <v>8.115481129984801</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006333933538046646</v>
       </c>
       <c r="H19">
-        <v>0.2621550830859007</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2645734883269455</v>
       </c>
       <c r="J19">
-        <v>7.523309832227369</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4.09891619172268</v>
+        <v>7.425001049274016</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>4.050560177753255</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.653905605490706</v>
+        <v>1.646581962496867</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3256620964059209</v>
+        <v>0.3186568413631932</v>
       </c>
       <c r="E20">
-        <v>0.1359855378523918</v>
+        <v>0.128298698476943</v>
       </c>
       <c r="F20">
-        <v>8.68934748249012</v>
+        <v>8.572078723351893</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006249914506189371</v>
       </c>
       <c r="H20">
-        <v>0.2680107170808128</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2698558983351305</v>
       </c>
       <c r="J20">
-        <v>7.908549085471719</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>4.315244766809371</v>
+        <v>7.804174109389123</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.263617272998232</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.897309215580975</v>
+        <v>1.888403219303314</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3987374044046277</v>
+        <v>0.3891281012229939</v>
       </c>
       <c r="E21">
-        <v>0.1619290193096106</v>
+        <v>0.1530619278357683</v>
       </c>
       <c r="F21">
-        <v>10.42013477564706</v>
+        <v>10.26253641765095</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005954533586133071</v>
       </c>
       <c r="H21">
-        <v>0.2971003942565957</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2967245849976621</v>
       </c>
       <c r="J21">
-        <v>9.300804690455408</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>5.100783491260785</v>
+        <v>9.17238546989762</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.036110876240144</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064998559748261</v>
+        <v>2.054786096993382</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4553948134920915</v>
+        <v>0.4436533108380871</v>
       </c>
       <c r="E22">
-        <v>0.1820990272593228</v>
+        <v>0.1722288659120252</v>
       </c>
       <c r="F22">
-        <v>11.72255162324106</v>
+        <v>11.53120496508544</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005746551313564953</v>
       </c>
       <c r="H22">
-        <v>0.3256490181646257</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3234589495735349</v>
       </c>
       <c r="J22">
-        <v>10.31484313563092</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>5.676218236012176</v>
+        <v>10.16616456788887</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>5.600476262949201</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.974516252085749</v>
+        <v>1.965036140228989</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4241159253997466</v>
+        <v>0.413567605272533</v>
       </c>
       <c r="E23">
-        <v>0.1709452637433202</v>
+        <v>0.1616401408047281</v>
       </c>
       <c r="F23">
-        <v>11.0075318206593</v>
+        <v>10.83514544347062</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005859355006102445</v>
       </c>
       <c r="H23">
-        <v>0.3093293516941458</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3081539218159151</v>
       </c>
       <c r="J23">
-        <v>9.761483429076776</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>5.361887744039421</v>
+        <v>9.624201823563055</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.292380357104435</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.650037278135926</v>
+        <v>1.642736561270851</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3245780041519737</v>
+        <v>0.3176106426935092</v>
       </c>
       <c r="E24">
-        <v>0.1355993942925622</v>
+        <v>0.1279293223753513</v>
       </c>
       <c r="F24">
-        <v>8.663197638458257</v>
+        <v>8.546507854222142</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006254567670755697</v>
       </c>
       <c r="H24">
-        <v>0.2676586183550427</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2695361421448865</v>
       </c>
       <c r="J24">
-        <v>7.887085019642939</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4.303179412082272</v>
+        <v>7.78305385078923</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4.251737567623536</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.323684534457925</v>
+        <v>1.31814430592425</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2406692052594082</v>
+        <v>0.2366244374870519</v>
       </c>
       <c r="E25">
-        <v>0.1053355809877168</v>
+        <v>0.09891875494474434</v>
       </c>
       <c r="F25">
-        <v>6.590916273912285</v>
+        <v>6.518135230015929</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006645540609091821</v>
       </c>
       <c r="H25">
-        <v>0.2496180199259896</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2539899204819065</v>
       </c>
       <c r="J25">
-        <v>6.139583977670355</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3.325991452821484</v>
+        <v>6.061510171078226</v>
       </c>
       <c r="L25">
+        <v>3.288476988839477</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.090302626342805</v>
+        <v>0.2760961369922086</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1875585129717052</v>
+        <v>0.2355952290747751</v>
       </c>
       <c r="E2">
-        <v>0.08062446004325352</v>
+        <v>0.022631591251141</v>
       </c>
       <c r="F2">
-        <v>5.233583628113848</v>
+        <v>5.879059118156135</v>
       </c>
       <c r="G2">
-        <v>0.0006921583963623567</v>
+        <v>0.0006854191358628695</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2562722023366675</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.916319661100118</v>
+        <v>5.22563870700796</v>
       </c>
       <c r="L2">
-        <v>2.653770748141923</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>3.265411812210985</v>
+      </c>
+      <c r="N2">
+        <v>0.5453416671605886</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9401781616899996</v>
+        <v>0.2406862098709297</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1583915942335921</v>
+        <v>0.1992934270203364</v>
       </c>
       <c r="E3">
-        <v>0.06928489837486751</v>
+        <v>0.02142757403475226</v>
       </c>
       <c r="F3">
-        <v>4.444299534150616</v>
+        <v>4.991336778255771</v>
       </c>
       <c r="G3">
-        <v>0.0007106645014803533</v>
+        <v>0.0007048370499566393</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2637944033648338</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.18624853110353</v>
+        <v>4.427763402534055</v>
       </c>
       <c r="L3">
-        <v>2.251971163622002</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.765890902169303</v>
+      </c>
+      <c r="N3">
+        <v>0.6163504963228554</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8494832934764531</v>
+        <v>0.2192241306218676</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1419389386548175</v>
+        <v>0.1786694697941584</v>
       </c>
       <c r="E4">
-        <v>0.06266599245966731</v>
+        <v>0.02074242474622334</v>
       </c>
       <c r="F4">
-        <v>3.988676668680796</v>
+        <v>4.478634254007147</v>
       </c>
       <c r="G4">
-        <v>0.000722049163002953</v>
+        <v>0.0007167458553066192</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2707624189569628</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.753857563895565</v>
+        <v>3.958744807528234</v>
       </c>
       <c r="L4">
-        <v>2.015131845651055</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.472613609524061</v>
+      </c>
+      <c r="N4">
+        <v>0.6617316308885837</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8128209028375295</v>
+        <v>0.2105385239753588</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1355349113891435</v>
+        <v>0.1706046986370069</v>
       </c>
       <c r="E5">
-        <v>0.06003510723398264</v>
+        <v>0.02047369321418824</v>
       </c>
       <c r="F5">
-        <v>3.808991439699582</v>
+        <v>4.276314665630707</v>
       </c>
       <c r="G5">
-        <v>0.0007267083067372929</v>
+        <v>0.0007216122912518249</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2741209168130467</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.58084326130637</v>
+        <v>3.771796710894648</v>
       </c>
       <c r="L5">
-        <v>1.920613336264338</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.355804129555779</v>
+      </c>
+      <c r="N5">
+        <v>0.6806449469890765</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8067490598955942</v>
+        <v>0.2090996655687007</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.134488000605117</v>
+        <v>0.1692840554551793</v>
       </c>
       <c r="E6">
-        <v>0.05960175867149076</v>
+        <v>0.02042962705314721</v>
       </c>
       <c r="F6">
-        <v>3.779482660069874</v>
+        <v>4.243080006013486</v>
       </c>
       <c r="G6">
-        <v>0.0007274835186029406</v>
+        <v>0.0007224216081960038</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2747080733156686</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.552286297324144</v>
+        <v>3.74097939880707</v>
       </c>
       <c r="L6">
-        <v>1.9050266226145</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.336554095907488</v>
+      </c>
+      <c r="N6">
+        <v>0.6838101429040506</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8489877425785721</v>
+        <v>0.219106761268506</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1418514321839837</v>
+        <v>0.1785594229223904</v>
       </c>
       <c r="E7">
-        <v>0.06263026585376252</v>
+        <v>0.02073876166871891</v>
       </c>
       <c r="F7">
-        <v>3.986230688961115</v>
+        <v>4.475880729852349</v>
       </c>
       <c r="G7">
-        <v>0.0007221119005649751</v>
+        <v>0.0007168114110025128</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2708056972854678</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.751512273868144</v>
+        <v>3.956207888789805</v>
       </c>
       <c r="L7">
-        <v>2.013849632701238</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.471028122880213</v>
+      </c>
+      <c r="N7">
+        <v>0.6619850345355456</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.038181824020654</v>
+        <v>0.2638222405929298</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.177155732536292</v>
+        <v>0.2226793291114006</v>
       </c>
       <c r="E8">
-        <v>0.07662959900298105</v>
+        <v>0.02220302290882614</v>
       </c>
       <c r="F8">
-        <v>4.954547237862187</v>
+        <v>5.565229453957102</v>
       </c>
       <c r="G8">
-        <v>0.0006985443074783091</v>
+        <v>0.000692128722687518</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2583307101902328</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.660759694374207</v>
+        <v>4.945478075008538</v>
       </c>
       <c r="L8">
-        <v>2.512858474838893</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3.089936870690948</v>
+      </c>
+      <c r="N8">
+        <v>0.5694373380148754</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.425308861395877</v>
+        <v>0.3542799985492735</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2618351172591389</v>
+        <v>0.3272332588737328</v>
       </c>
       <c r="E9">
-        <v>0.1080633750411266</v>
+        <v>0.02571446568066449</v>
       </c>
       <c r="F9">
-        <v>7.16059821119515</v>
+        <v>8.050337948788581</v>
       </c>
       <c r="G9">
-        <v>0.0006516589646856641</v>
+        <v>0.0006425920673670927</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2566589165573703</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.617248212509395</v>
+        <v>7.115821550149604</v>
       </c>
       <c r="L9">
-        <v>3.598295076565648</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4.450774996371607</v>
+      </c>
+      <c r="N9">
+        <v>0.4036983610997531</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.727836570109019</v>
+        <v>0.4234359344171992</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3412848013858678</v>
+        <v>0.4251094547238239</v>
       </c>
       <c r="E10">
-        <v>0.1362697340208214</v>
+        <v>0.0291811683595693</v>
       </c>
       <c r="F10">
-        <v>9.121606198180956</v>
+        <v>10.27873946200961</v>
       </c>
       <c r="G10">
-        <v>0.0006151329335143417</v>
+        <v>0.0006033958412866742</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2773826970481181</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.254886650660637</v>
+        <v>8.984655120637626</v>
       </c>
       <c r="L10">
-        <v>4.517468852902823</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5.623763916895683</v>
+      </c>
+      <c r="N10">
+        <v>0.2946986279796171</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.872303847714363</v>
+        <v>0.4558231208722532</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3841314264894748</v>
+        <v>0.478272498653169</v>
       </c>
       <c r="E11">
-        <v>0.1513092653173693</v>
+        <v>0.03118195982289151</v>
       </c>
       <c r="F11">
-        <v>10.14464255044609</v>
+        <v>11.45529423522348</v>
       </c>
       <c r="G11">
-        <v>0.0005974413308679199</v>
+        <v>0.0005841177457877162</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2945085043156581</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.078665294308905</v>
+        <v>9.947705444247958</v>
       </c>
       <c r="L11">
-        <v>4.983022271966547</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6.227988219421775</v>
+      </c>
+      <c r="N11">
+        <v>0.249077013743598</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.928381511785943</v>
+        <v>0.4682656474776508</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4017402681305242</v>
+        <v>0.500264270496146</v>
       </c>
       <c r="E12">
-        <v>0.1574871539239275</v>
+        <v>0.0320397401704291</v>
       </c>
       <c r="F12">
-        <v>10.55886036375915</v>
+        <v>11.93554795762412</v>
       </c>
       <c r="G12">
-        <v>0.0005904999046879123</v>
+        <v>0.0005764835339899573</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.30250355563863</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.406891235923297</v>
+        <v>10.33664134863284</v>
       </c>
       <c r="L12">
-        <v>5.169054028702277</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6.471878251802792</v>
+      </c>
+      <c r="N12">
+        <v>0.2325430519704312</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.916234949029615</v>
+        <v>0.465577034417592</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3978770877425575</v>
+        <v>0.4954309025267349</v>
       </c>
       <c r="E13">
-        <v>0.1561314027772767</v>
+        <v>0.03184958664769333</v>
       </c>
       <c r="F13">
-        <v>10.46828356446372</v>
+        <v>11.83031271310244</v>
       </c>
       <c r="G13">
-        <v>0.0005920075435982365</v>
+        <v>0.0005781454521876811</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3007057878595205</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.335369417809062</v>
+        <v>10.25161394749094</v>
       </c>
       <c r="L13">
-        <v>5.128491970743596</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6.418568250517978</v>
+      </c>
+      <c r="N13">
+        <v>0.2360670695341938</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.876887017915749</v>
+        <v>0.4568428652154921</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3855491469210932</v>
+        <v>0.480039515839465</v>
       </c>
       <c r="E14">
-        <v>0.1518065374095592</v>
+        <v>0.03125019045292188</v>
       </c>
       <c r="F14">
-        <v>10.17812186471383</v>
+        <v>11.49401872862745</v>
       </c>
       <c r="G14">
-        <v>0.0005968757756922705</v>
+        <v>0.0005834973774611601</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2951329419671964</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.105304438031027</v>
+        <v>9.979153197282301</v>
       </c>
       <c r="L14">
-        <v>4.998109769138722</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6.247711537504586</v>
+      </c>
+      <c r="N14">
+        <v>0.2477005356879012</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.852978466134203</v>
+        <v>0.4515178500018777</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3781944584678314</v>
+        <v>0.4708790781127163</v>
       </c>
       <c r="E15">
-        <v>0.1492268967555432</v>
+        <v>0.03089774374907961</v>
       </c>
       <c r="F15">
-        <v>10.00419053130355</v>
+        <v>11.29300458654518</v>
       </c>
       <c r="G15">
-        <v>0.0005998228121070755</v>
+        <v>0.0005867270222213446</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2919314977368757</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.966694472262247</v>
+        <v>9.815743698738231</v>
       </c>
       <c r="L15">
-        <v>4.91962752662846</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6.145218913341594</v>
+      </c>
+      <c r="N15">
+        <v>0.2549297829453572</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.718562214386225</v>
+        <v>0.4213413931465197</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3386507352768433</v>
+        <v>0.4218537602127554</v>
       </c>
       <c r="E16">
-        <v>0.1353433664676373</v>
+        <v>0.02906169453548024</v>
       </c>
       <c r="F16">
-        <v>9.057978335754541</v>
+        <v>10.20594840427466</v>
       </c>
       <c r="G16">
-        <v>0.0006162609753798676</v>
+        <v>0.0006046174256679634</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2764485553134435</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.203004836989805</v>
+        <v>8.924572454523911</v>
       </c>
       <c r="L16">
-        <v>4.488215676502506</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5.58605672962517</v>
+      </c>
+      <c r="N16">
+        <v>0.2977725294083591</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.638080348008316</v>
+        <v>0.4030926884712329</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3163467690573327</v>
+        <v>0.3943281838996882</v>
       </c>
       <c r="E17">
-        <v>0.1274829766487855</v>
+        <v>0.02806422372041961</v>
       </c>
       <c r="F17">
-        <v>8.515596907973475</v>
+        <v>9.586991702746673</v>
       </c>
       <c r="G17">
-        <v>0.000626020064633888</v>
+        <v>0.0006151527862175529</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2691533292447303</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.757505067408857</v>
+        <v>8.411183356846806</v>
       </c>
       <c r="L17">
-        <v>4.237368819536101</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5.263829763409674</v>
+      </c>
+      <c r="N17">
+        <v>0.3251665542296571</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.592403402867717</v>
+        <v>0.3926803568276114</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3041156130101683</v>
+        <v>0.3792589407375431</v>
       </c>
       <c r="E18">
-        <v>0.1231562767763066</v>
+        <v>0.02752710469294151</v>
       </c>
       <c r="F18">
-        <v>8.215324411962058</v>
+        <v>9.245394127934105</v>
       </c>
       <c r="G18">
-        <v>0.0006315389409815534</v>
+        <v>0.0006210864238130794</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.265650049116843</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.508288974758159</v>
+        <v>8.125871751761679</v>
       </c>
       <c r="L18">
-        <v>4.097319350046774</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5.084741269598993</v>
+      </c>
+      <c r="N18">
+        <v>0.3412820985703</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.57703429004016</v>
+        <v>0.389168263907834</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3000673661244235</v>
+        <v>0.3742742570707804</v>
       </c>
       <c r="E19">
-        <v>0.1217210616870013</v>
+        <v>0.02735072947741113</v>
       </c>
       <c r="F19">
-        <v>8.115481129984801</v>
+        <v>9.131961043803244</v>
       </c>
       <c r="G19">
-        <v>0.0006333933538046646</v>
+        <v>0.0006230765752615212</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2645734883269455</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.425001049274016</v>
+        <v>8.030807344281982</v>
       </c>
       <c r="L19">
-        <v>4.050560177753255</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5.025069281729785</v>
+      </c>
+      <c r="N19">
+        <v>0.3467963557489462</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.646581962496867</v>
+        <v>0.4050263563784</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3186568413631932</v>
+        <v>0.3971760185265936</v>
       </c>
       <c r="E20">
-        <v>0.128298698476943</v>
+        <v>0.02816641624042315</v>
       </c>
       <c r="F20">
-        <v>8.572078723351893</v>
+        <v>9.651327260006042</v>
       </c>
       <c r="G20">
-        <v>0.0006249914506189371</v>
+        <v>0.0006140450124223056</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2698558983351305</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.804174109389123</v>
+        <v>8.464758054030483</v>
       </c>
       <c r="L20">
-        <v>4.263617272998232</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5.297457621307927</v>
+      </c>
+      <c r="N20">
+        <v>0.3222122695002057</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.888403219303314</v>
+        <v>0.4594029950826268</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3891281012229939</v>
+        <v>0.4845029244778516</v>
       </c>
       <c r="E21">
-        <v>0.1530619278357683</v>
+        <v>0.03142306698005726</v>
       </c>
       <c r="F21">
-        <v>10.26253641765095</v>
+        <v>11.59172825399742</v>
       </c>
       <c r="G21">
-        <v>0.0005954533586133071</v>
+        <v>0.0005819358565926602</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2967245849976621</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.17238546989762</v>
+        <v>10.05843397485569</v>
       </c>
       <c r="L21">
-        <v>5.036110876240144</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6.297432136404353</v>
+      </c>
+      <c r="N21">
+        <v>0.2442614901901905</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.054786096993382</v>
+        <v>0.4960215182392744</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4436533108380871</v>
+        <v>0.553078376324919</v>
       </c>
       <c r="E22">
-        <v>0.1722288659120252</v>
+        <v>0.03418203424036204</v>
       </c>
       <c r="F22">
-        <v>11.53120496508544</v>
+        <v>13.07414896788595</v>
       </c>
       <c r="G22">
-        <v>0.0005746551313564953</v>
+        <v>0.0005588709241593978</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3234589495735349</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.16616456788887</v>
+        <v>11.24979795351516</v>
       </c>
       <c r="L22">
-        <v>5.600476262949201</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7.044053269066353</v>
+      </c>
+      <c r="N22">
+        <v>0.1978138671581888</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.965036140228989</v>
+        <v>0.4763568006684977</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.413567605272533</v>
+        <v>0.5150949423423441</v>
       </c>
       <c r="E23">
-        <v>0.1616401408047281</v>
+        <v>0.03262915628069507</v>
       </c>
       <c r="F23">
-        <v>10.83514544347062</v>
+        <v>12.25735583036504</v>
       </c>
       <c r="G23">
-        <v>0.0005859355006102445</v>
+        <v>0.0005714382783838585</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3081539218159151</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.624201823563055</v>
+        <v>10.59597954191688</v>
       </c>
       <c r="L23">
-        <v>5.292380357104435</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6.634445474465593</v>
+      </c>
+      <c r="N23">
+        <v>0.2221037278173021</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.642736561270851</v>
+        <v>0.4041519017846582</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3176106426935092</v>
+        <v>0.3958861992063447</v>
       </c>
       <c r="E24">
-        <v>0.1279293223753513</v>
+        <v>0.02812010427438061</v>
       </c>
       <c r="F24">
-        <v>8.546507854222142</v>
+        <v>9.622197510305824</v>
       </c>
       <c r="G24">
-        <v>0.0006254567670755697</v>
+        <v>0.00061454621275969</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2695361421448865</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.78305385078923</v>
+        <v>8.440506798591599</v>
       </c>
       <c r="L24">
-        <v>4.251737567623536</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5.282235589098036</v>
+      </c>
+      <c r="N24">
+        <v>0.3235467718867042</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.31814430592425</v>
+        <v>0.3294237001647105</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2366244374870519</v>
+        <v>0.2962031993391179</v>
       </c>
       <c r="E25">
-        <v>0.09891875494474434</v>
+        <v>0.02465858249923158</v>
       </c>
       <c r="F25">
-        <v>6.518135230015929</v>
+        <v>7.325208090346592</v>
       </c>
       <c r="G25">
-        <v>0.0006645540609091821</v>
+        <v>0.0006562865993517727</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2539899204819065</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.061510171078226</v>
+        <v>6.493122812664893</v>
       </c>
       <c r="L25">
-        <v>3.288476988839477</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>4.060056885747386</v>
+      </c>
+      <c r="N25">
+        <v>0.4465844090740312</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2760961369922086</v>
+        <v>0.7947309099215545</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2355952290747751</v>
+        <v>0.0336881841911385</v>
       </c>
       <c r="E2">
-        <v>0.022631591251141</v>
+        <v>0.07110946868744739</v>
       </c>
       <c r="F2">
-        <v>5.879059118156135</v>
+        <v>0.7805842928530495</v>
       </c>
       <c r="G2">
-        <v>0.0006854191358628695</v>
+        <v>0.6962892781049135</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4639908737105003</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.459605631326216</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.22563870700796</v>
+        <v>1.747398255543089</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3727439450644425</v>
       </c>
       <c r="M2">
-        <v>3.265411812210985</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5453416671605886</v>
+        <v>0.8515548811905642</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2406862098709297</v>
+        <v>0.6980685797024933</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1992934270203364</v>
+        <v>0.03182328857628747</v>
       </c>
       <c r="E3">
-        <v>0.02142757403475226</v>
+        <v>0.07171825820265654</v>
       </c>
       <c r="F3">
-        <v>4.991336778255771</v>
+        <v>0.7179537580641195</v>
       </c>
       <c r="G3">
-        <v>0.0007048370499566393</v>
+        <v>0.6405512070562338</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4448206746790788</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4636829284947019</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.427763402534055</v>
+        <v>1.518317535584515</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3247515897339781</v>
       </c>
       <c r="M3">
-        <v>2.765890902169303</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6163504963228554</v>
+        <v>0.8969159346289786</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2192241306218676</v>
+        <v>0.6391731609386682</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1786694697941584</v>
+        <v>0.03067253628733368</v>
       </c>
       <c r="E4">
-        <v>0.02074242474622334</v>
+        <v>0.0721362250044697</v>
       </c>
       <c r="F4">
-        <v>4.478634254007147</v>
+        <v>0.6809495753735604</v>
       </c>
       <c r="G4">
-        <v>0.0007167458553066192</v>
+        <v>0.6077701809651614</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4338986616441645</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.467013609940075</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.958744807528234</v>
+        <v>1.378217518349459</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.295590922858338</v>
       </c>
       <c r="M4">
-        <v>2.472613609524061</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6617316308885837</v>
+        <v>0.9259850124004156</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2105385239753588</v>
+        <v>0.6152760243472528</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1706046986370069</v>
+        <v>0.03020208812166203</v>
       </c>
       <c r="E5">
-        <v>0.02047369321418824</v>
+        <v>0.07231742998439183</v>
       </c>
       <c r="F5">
-        <v>4.276314665630707</v>
+        <v>0.6662098439177626</v>
       </c>
       <c r="G5">
-        <v>0.0007216122912518249</v>
+        <v>0.5947486760800729</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.429649531909547</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4685712403352333</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.771796710894648</v>
+        <v>1.321232982474754</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2837762331379565</v>
       </c>
       <c r="M5">
-        <v>2.355804129555779</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6806449469890765</v>
+        <v>0.9381290069257098</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2090996655687007</v>
+        <v>0.6113138374889218</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1692840554551793</v>
+        <v>0.03012387751683931</v>
       </c>
       <c r="E6">
-        <v>0.02042962705314721</v>
+        <v>0.07234816982243886</v>
       </c>
       <c r="F6">
-        <v>4.243080006013486</v>
+        <v>0.6637821352446025</v>
       </c>
       <c r="G6">
-        <v>0.0007224216081960038</v>
+        <v>0.592606097436672</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4289558184342894</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4688417677139789</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.74097939880707</v>
+        <v>1.311776312939656</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2818183077704646</v>
       </c>
       <c r="M6">
-        <v>2.336554095907488</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6838101429040506</v>
+        <v>0.940163288148506</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.219106761268506</v>
+        <v>0.6388504723989286</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1785594229223904</v>
+        <v>0.03066619785384361</v>
       </c>
       <c r="E7">
-        <v>0.02073876166871891</v>
+        <v>0.07213862502945489</v>
       </c>
       <c r="F7">
-        <v>4.475880729852349</v>
+        <v>0.6807494466973694</v>
       </c>
       <c r="G7">
-        <v>0.0007168114110025128</v>
+        <v>0.6075932366618844</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4338405547867694</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4670338153138758</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.956207888789805</v>
+        <v>1.377448611913223</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2954313194629492</v>
       </c>
       <c r="M7">
-        <v>2.471028122880213</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6619850345355456</v>
+        <v>0.9261475937346635</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2638222405929298</v>
+        <v>0.7613001173423015</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2226793291114006</v>
+        <v>0.033046303142509</v>
       </c>
       <c r="E8">
-        <v>0.02220302290882614</v>
+        <v>0.07131006993228928</v>
       </c>
       <c r="F8">
-        <v>5.565229453957102</v>
+        <v>0.758672493115057</v>
       </c>
       <c r="G8">
-        <v>0.000692128722687518</v>
+        <v>0.6767555115349921</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4571976139708198</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4608350684031315</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.945478075008538</v>
+        <v>1.668275444576182</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3561271370687393</v>
       </c>
       <c r="M8">
-        <v>3.089936870690948</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5694373380148754</v>
+        <v>0.8669378206847291</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3542799985492735</v>
+        <v>1.005593821350061</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3272332588737328</v>
+        <v>0.03767248023801528</v>
       </c>
       <c r="E9">
-        <v>0.02571446568066449</v>
+        <v>0.07004703802589374</v>
       </c>
       <c r="F9">
-        <v>8.050337948788581</v>
+        <v>0.9242084165332614</v>
       </c>
       <c r="G9">
-        <v>0.0006425920673670927</v>
+        <v>0.8250662276203258</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5102985547817269</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4556080800071314</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.115821550149604</v>
+        <v>2.244598905299767</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4780056222064957</v>
       </c>
       <c r="M9">
-        <v>4.450774996371607</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4036983610997531</v>
+        <v>0.7608632888897588</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4234359344171992</v>
+        <v>1.188456721837014</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4251094547238239</v>
+        <v>0.04105283462835985</v>
       </c>
       <c r="E10">
-        <v>0.0291811683595693</v>
+        <v>0.06935726985856272</v>
       </c>
       <c r="F10">
-        <v>10.27873946200961</v>
+        <v>1.055404618225381</v>
       </c>
       <c r="G10">
-        <v>0.0006033958412866742</v>
+        <v>0.9436165488422859</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5546060197989817</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4565314522272885</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.984655120637626</v>
+        <v>2.674114758574291</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5699204599003451</v>
       </c>
       <c r="M10">
-        <v>5.623763916895683</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.2946986279796171</v>
+        <v>0.6896034484760278</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4558231208722532</v>
+        <v>1.272580893955649</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.478272498653169</v>
+        <v>0.04258833490864333</v>
       </c>
       <c r="E11">
-        <v>0.03118195982289151</v>
+        <v>0.06909972868779501</v>
       </c>
       <c r="F11">
-        <v>11.45529423522348</v>
+        <v>1.117607611616108</v>
       </c>
       <c r="G11">
-        <v>0.0005841177457877162</v>
+        <v>1.000078138430638</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5761167817948092</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4581148941609428</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.947705444247958</v>
+        <v>2.871425525092491</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6124016716389633</v>
       </c>
       <c r="M11">
-        <v>6.227988219421775</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.249077013743598</v>
+        <v>0.6587679563477735</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4682656474776508</v>
+        <v>1.3045892818011</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.500264270496146</v>
+        <v>0.04316962089568221</v>
       </c>
       <c r="E12">
-        <v>0.0320397401704291</v>
+        <v>0.06901072697540944</v>
       </c>
       <c r="F12">
-        <v>11.93554795762412</v>
+        <v>1.1415645222244</v>
       </c>
       <c r="G12">
-        <v>0.0005764835339899573</v>
+        <v>1.021863493928436</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5844757809046683</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4588934476210298</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.33664134863284</v>
+        <v>2.946471422867916</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6285979569364599</v>
       </c>
       <c r="M12">
-        <v>6.471878251802792</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2325430519704312</v>
+        <v>0.6473309834545091</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.465577034417592</v>
+        <v>1.297688634400231</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4954309025267349</v>
+        <v>0.04304443578974571</v>
       </c>
       <c r="E13">
-        <v>0.03184958664769333</v>
+        <v>0.06902950847112765</v>
       </c>
       <c r="F13">
-        <v>11.83031271310244</v>
+        <v>1.136386431353969</v>
       </c>
       <c r="G13">
-        <v>0.0005781454521876811</v>
+        <v>1.017152954449728</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5826657215867073</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4587176190670164</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.25161394749094</v>
+        <v>2.930293451220734</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6251046986753579</v>
       </c>
       <c r="M13">
-        <v>6.418568250517978</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2360670695341938</v>
+        <v>0.6497832687067806</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4568428652154921</v>
+        <v>1.275211084952474</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.480039515839465</v>
+        <v>0.04263616024989147</v>
       </c>
       <c r="E14">
-        <v>0.03125019045292188</v>
+        <v>0.06909223294679778</v>
       </c>
       <c r="F14">
-        <v>11.49401872862745</v>
+        <v>1.11957026710364</v>
       </c>
       <c r="G14">
-        <v>0.0005834973774611601</v>
+        <v>1.001862080905184</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.5768000946341374</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4581752902134753</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.979153197282301</v>
+        <v>2.877592695372272</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6137318731032337</v>
       </c>
       <c r="M14">
-        <v>6.247711537504586</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2477005356879012</v>
+        <v>0.6578221499872043</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4515178500018777</v>
+        <v>1.261463320609408</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4708790781127163</v>
+        <v>0.04238606162261505</v>
       </c>
       <c r="E15">
-        <v>0.03089774374907961</v>
+        <v>0.06913177738351628</v>
       </c>
       <c r="F15">
-        <v>11.29300458654518</v>
+        <v>1.109323457603992</v>
       </c>
       <c r="G15">
-        <v>0.0005867270222213446</v>
+        <v>0.9925499240042654</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.5732355868762937</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4578667616772165</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.815743698738231</v>
+        <v>2.845356380777389</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6067803750843694</v>
       </c>
       <c r="M15">
-        <v>6.145218913341594</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2549297829453572</v>
+        <v>0.6627778056706273</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4213413931465197</v>
+        <v>1.18297935843205</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4218537602127554</v>
+        <v>0.04095245321525454</v>
       </c>
       <c r="E16">
-        <v>0.02906169453548024</v>
+        <v>0.06937526855840592</v>
       </c>
       <c r="F16">
-        <v>10.20594840427466</v>
+        <v>1.051393537909959</v>
       </c>
       <c r="G16">
-        <v>0.0006046174256679634</v>
+        <v>0.9399809898550302</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5532290537685753</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4564523567740437</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.924572454523911</v>
+        <v>2.661263071786891</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5671587912745224</v>
       </c>
       <c r="M16">
-        <v>5.58605672962517</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2977725294083591</v>
+        <v>0.6916514732345362</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4030926884712329</v>
+        <v>1.135084426132693</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3943281838996882</v>
+        <v>0.0400725067626766</v>
       </c>
       <c r="E17">
-        <v>0.02806422372041961</v>
+        <v>0.06953934074353318</v>
       </c>
       <c r="F17">
-        <v>9.586991702746673</v>
+        <v>1.016528211739981</v>
       </c>
       <c r="G17">
-        <v>0.0006151527862175529</v>
+        <v>0.9084079960709062</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5413154371681372</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4558906545302293</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.411183356846806</v>
+        <v>2.548855793301527</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5430327159771622</v>
       </c>
       <c r="M17">
-        <v>5.263829763409674</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3251665542296571</v>
+        <v>0.7097779937957878</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3926803568276114</v>
+        <v>1.107623788488439</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3792589407375431</v>
+        <v>0.03956616418890491</v>
       </c>
       <c r="E18">
-        <v>0.02752710469294151</v>
+        <v>0.06963897500209137</v>
       </c>
       <c r="F18">
-        <v>9.245394127934105</v>
+        <v>0.9967093595090262</v>
       </c>
       <c r="G18">
-        <v>0.0006210864238130794</v>
+        <v>0.8904838028401656</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5345893924964287</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4556763360924663</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.125871751761679</v>
+        <v>2.484379610424043</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5292181120532291</v>
       </c>
       <c r="M18">
-        <v>5.084741269598993</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3412820985703</v>
+        <v>0.7203518988199367</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.389168263907834</v>
+        <v>1.098340567173835</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3742742570707804</v>
+        <v>0.03939468318196049</v>
       </c>
       <c r="E19">
-        <v>0.02735072947741113</v>
+        <v>0.06967360113589738</v>
       </c>
       <c r="F19">
-        <v>9.131961043803244</v>
+        <v>0.9900382070244547</v>
       </c>
       <c r="G19">
-        <v>0.0006230765752615212</v>
+        <v>0.8844542927668044</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5323332319354961</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4556221099691768</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.030807344281982</v>
+        <v>2.462578051098745</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5245509945787319</v>
       </c>
       <c r="M19">
-        <v>5.025069281729785</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3467963557489462</v>
+        <v>0.7239570993016784</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4050263563784</v>
+        <v>1.14017377057732</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3971760185265936</v>
+        <v>0.04016620038751739</v>
       </c>
       <c r="E20">
-        <v>0.02816641624042315</v>
+        <v>0.06952132715093184</v>
       </c>
       <c r="F20">
-        <v>9.651327260006042</v>
+        <v>1.020215112801907</v>
       </c>
       <c r="G20">
-        <v>0.0006140450124223056</v>
+        <v>0.9117443129340614</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5425704559523155</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4559391110711388</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.464758054030483</v>
+        <v>2.560803004174204</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5455944593905855</v>
       </c>
       <c r="M20">
-        <v>5.297457621307927</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3222122695002057</v>
+        <v>0.7078329893783923</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4594029950826268</v>
+        <v>1.281809005256008</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4845029244778516</v>
+        <v>0.04275608415059651</v>
       </c>
       <c r="E21">
-        <v>0.03142306698005726</v>
+        <v>0.06907357417513649</v>
       </c>
       <c r="F21">
-        <v>11.59172825399742</v>
+        <v>1.124498341812313</v>
       </c>
       <c r="G21">
-        <v>0.0005819358565926602</v>
+        <v>1.006342062174923</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.5785170264596076</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4583296318576586</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.05843397485569</v>
+        <v>2.893062828040655</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6170692616242235</v>
       </c>
       <c r="M21">
-        <v>6.297432136404353</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2442614901901905</v>
+        <v>0.655454324908435</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4960215182392744</v>
+        <v>1.375273093925784</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.553078376324919</v>
+        <v>0.04444778623834367</v>
       </c>
       <c r="E22">
-        <v>0.03418203424036204</v>
+        <v>0.06883086603051169</v>
       </c>
       <c r="F22">
-        <v>13.07414896788595</v>
+        <v>1.195017257283595</v>
       </c>
       <c r="G22">
-        <v>0.0005588709241593978</v>
+        <v>1.070546588133681</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6032634199657991</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.460941013976651</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.24979795351516</v>
+        <v>3.11215671778001</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6644278672214057</v>
       </c>
       <c r="M22">
-        <v>7.044053269066353</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.1978138671581888</v>
+        <v>0.6226258161233282</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4763568006684977</v>
+        <v>1.325301359725074</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5150949423423441</v>
+        <v>0.0435449253442286</v>
       </c>
       <c r="E23">
-        <v>0.03262915628069507</v>
+        <v>0.06895567724234386</v>
       </c>
       <c r="F23">
-        <v>12.25735583036504</v>
+        <v>1.15714979833173</v>
       </c>
       <c r="G23">
-        <v>0.0005714382783838585</v>
+        <v>1.036047456423745</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.5899346144719715</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.459447203214026</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.59597954191688</v>
+        <v>2.995025942861361</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6390878888311846</v>
       </c>
       <c r="M23">
-        <v>6.634445474465593</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2221037278173021</v>
+        <v>0.6400141839929034</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4041519017846582</v>
+        <v>1.137872646275753</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3958861992063447</v>
+        <v>0.04012384291114302</v>
       </c>
       <c r="E24">
-        <v>0.02812010427438061</v>
+        <v>0.06952945459841708</v>
       </c>
       <c r="F24">
-        <v>9.622197510305824</v>
+        <v>1.018547564806397</v>
       </c>
       <c r="G24">
-        <v>0.00061454621275969</v>
+        <v>0.9102352583542626</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5420026794356261</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4559168664379385</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.440506798591599</v>
+        <v>2.555401212238706</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5444361223959078</v>
       </c>
       <c r="M24">
-        <v>5.282235589098036</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3235467718867042</v>
+        <v>0.708711851092886</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3294237001647105</v>
+        <v>0.9389763333412589</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2962031993391179</v>
+        <v>0.03642474903767834</v>
       </c>
       <c r="E25">
-        <v>0.02465858249923158</v>
+        <v>0.07034829226567507</v>
       </c>
       <c r="F25">
-        <v>7.325208090346592</v>
+        <v>0.8778842674249887</v>
       </c>
       <c r="G25">
-        <v>0.0006562865993517727</v>
+        <v>0.783403234121991</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.495068601726814</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4562268220077321</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.493122812664893</v>
+        <v>2.087805256202074</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4446662832236257</v>
       </c>
       <c r="M25">
-        <v>4.060056885747386</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4465844090740312</v>
+        <v>0.7884300074158848</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7947309099215545</v>
+        <v>0.630832113316842</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0336881841911385</v>
+        <v>0.02880582012058142</v>
       </c>
       <c r="E2">
-        <v>0.07110946868744739</v>
+        <v>0.1655006580538818</v>
       </c>
       <c r="F2">
-        <v>0.7805842928530495</v>
+        <v>0.9216479529410009</v>
       </c>
       <c r="G2">
-        <v>0.6962892781049135</v>
+        <v>0.7730921049688391</v>
       </c>
       <c r="H2">
-        <v>0.4639908737105003</v>
+        <v>0.8311006263541998</v>
       </c>
       <c r="I2">
-        <v>0.459605631326216</v>
+        <v>0.9894943373427445</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.747398255543089</v>
+        <v>0.5375561185338711</v>
       </c>
       <c r="L2">
-        <v>0.3727439450644425</v>
+        <v>0.203407482233942</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8515548811905642</v>
+        <v>1.755416247555921</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6980685797024933</v>
+        <v>0.6065567131176977</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03182328857628747</v>
+        <v>0.02807919792270042</v>
       </c>
       <c r="E3">
-        <v>0.07171825820265654</v>
+        <v>0.1661664880952003</v>
       </c>
       <c r="F3">
-        <v>0.7179537580641195</v>
+        <v>0.9119622753842123</v>
       </c>
       <c r="G3">
-        <v>0.6405512070562338</v>
+        <v>0.7644004968154121</v>
       </c>
       <c r="H3">
-        <v>0.4448206746790788</v>
+        <v>0.8317218170034124</v>
       </c>
       <c r="I3">
-        <v>0.4636829284947019</v>
+        <v>0.9966014868725495</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.518317535584515</v>
+        <v>0.4701167810797813</v>
       </c>
       <c r="L3">
-        <v>0.3247515897339781</v>
+        <v>0.1909835505091166</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8969159346289786</v>
+        <v>1.774230150580513</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6391731609386682</v>
+        <v>0.5919269093389232</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03067253628733368</v>
+        <v>0.02762798263261956</v>
       </c>
       <c r="E4">
-        <v>0.0721362250044697</v>
+        <v>0.1666046963100674</v>
       </c>
       <c r="F4">
-        <v>0.6809495753735604</v>
+        <v>0.9066079626795229</v>
       </c>
       <c r="G4">
-        <v>0.6077701809651614</v>
+        <v>0.759605367938164</v>
       </c>
       <c r="H4">
-        <v>0.4338986616441645</v>
+        <v>0.8325224494669214</v>
       </c>
       <c r="I4">
-        <v>0.467013609940075</v>
+        <v>1.001402809579425</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.378217518349459</v>
+        <v>0.4286897552950393</v>
       </c>
       <c r="L4">
-        <v>0.295590922858338</v>
+        <v>0.1834602331612274</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9259850124004156</v>
+        <v>1.786371471599869</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6152760243472528</v>
+        <v>0.5860348481664062</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03020208812166203</v>
+        <v>0.02744284522351847</v>
       </c>
       <c r="E5">
-        <v>0.07231742998439183</v>
+        <v>0.1667906762306595</v>
       </c>
       <c r="F5">
-        <v>0.6662098439177626</v>
+        <v>0.9045749419929479</v>
       </c>
       <c r="G5">
-        <v>0.5947486760800729</v>
+        <v>0.7577872463727573</v>
       </c>
       <c r="H5">
-        <v>0.429649531909547</v>
+        <v>0.8329541244520868</v>
       </c>
       <c r="I5">
-        <v>0.4685712403352333</v>
+        <v>1.003469415697367</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.321232982474754</v>
+        <v>0.4118034328219835</v>
       </c>
       <c r="L5">
-        <v>0.2837762331379565</v>
+        <v>0.1804208777293184</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9381290069257098</v>
+        <v>1.791467344747128</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6113138374889218</v>
+        <v>0.5850606991334928</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03012387751683931</v>
+        <v>0.02741202729313486</v>
       </c>
       <c r="E6">
-        <v>0.07234816982243886</v>
+        <v>0.1668220058979855</v>
       </c>
       <c r="F6">
-        <v>0.6637821352446025</v>
+        <v>0.9042463498408182</v>
       </c>
       <c r="G6">
-        <v>0.592606097436672</v>
+        <v>0.7574935514909384</v>
       </c>
       <c r="H6">
-        <v>0.4289558184342894</v>
+        <v>0.8330321701810135</v>
       </c>
       <c r="I6">
-        <v>0.4688417677139789</v>
+        <v>1.003819219926868</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.311776312939656</v>
+        <v>0.408999210731821</v>
       </c>
       <c r="L6">
-        <v>0.2818183077704646</v>
+        <v>0.179917794459385</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.940163288148506</v>
+        <v>1.792322459253066</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6388504723989286</v>
+        <v>0.5918471641157055</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03066619785384361</v>
+        <v>0.02762549090699906</v>
       </c>
       <c r="E7">
-        <v>0.07213862502945489</v>
+        <v>0.1666071744878943</v>
       </c>
       <c r="F7">
-        <v>0.6807494466973694</v>
+        <v>0.9065799419303886</v>
       </c>
       <c r="G7">
-        <v>0.6075932366618844</v>
+        <v>0.7595802980571591</v>
       </c>
       <c r="H7">
-        <v>0.4338405547867694</v>
+        <v>0.8325278443919046</v>
       </c>
       <c r="I7">
-        <v>0.4670338153138758</v>
+        <v>1.001430235034995</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.377448611913223</v>
+        <v>0.4284620381503998</v>
       </c>
       <c r="L7">
-        <v>0.2954313194629492</v>
+        <v>0.1834191361617599</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9261475937346635</v>
+        <v>1.786439596396033</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7613001173423015</v>
+        <v>0.6224050611502037</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.033046303142509</v>
+        <v>0.02855633834754912</v>
       </c>
       <c r="E8">
-        <v>0.07131006993228928</v>
+        <v>0.1657241475261813</v>
       </c>
       <c r="F8">
-        <v>0.758672493115057</v>
+        <v>0.91818521828813</v>
       </c>
       <c r="G8">
-        <v>0.6767555115349921</v>
+        <v>0.7699826860930159</v>
       </c>
       <c r="H8">
-        <v>0.4571976139708198</v>
+        <v>0.8312277985958048</v>
       </c>
       <c r="I8">
-        <v>0.4608350684031315</v>
+        <v>0.9918540866977672</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.668275444576182</v>
+        <v>0.5143071406344006</v>
       </c>
       <c r="L8">
-        <v>0.3561271370687393</v>
+        <v>0.1991019365206483</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8669378206847291</v>
+        <v>1.76178090023776</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.005593821350061</v>
+        <v>0.6844977810303021</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03767248023801528</v>
+        <v>0.03034114917130282</v>
       </c>
       <c r="E9">
-        <v>0.07004703802589374</v>
+        <v>0.1642249348539486</v>
       </c>
       <c r="F9">
-        <v>0.9242084165332614</v>
+        <v>0.9456551895619754</v>
       </c>
       <c r="G9">
-        <v>0.8250662276203258</v>
+        <v>0.7946920479179624</v>
       </c>
       <c r="H9">
-        <v>0.5102985547817269</v>
+        <v>0.8320059657979755</v>
       </c>
       <c r="I9">
-        <v>0.4556080800071314</v>
+        <v>0.9765462843245523</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.244598905299767</v>
+        <v>0.6824933106811386</v>
       </c>
       <c r="L9">
-        <v>0.4780056222064957</v>
+        <v>0.2306889013077011</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7608632888897588</v>
+        <v>1.71810425943672</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.188456721837014</v>
+        <v>0.7314228318133473</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04105283462835985</v>
+        <v>0.03162732032737381</v>
       </c>
       <c r="E10">
-        <v>0.06935726985856272</v>
+        <v>0.1632641033629265</v>
       </c>
       <c r="F10">
-        <v>1.055404618225381</v>
+        <v>0.9687261447779605</v>
       </c>
       <c r="G10">
-        <v>0.9436165488422859</v>
+        <v>0.815495373888794</v>
       </c>
       <c r="H10">
-        <v>0.5546060197989817</v>
+        <v>0.8346094163364484</v>
       </c>
       <c r="I10">
-        <v>0.4565314522272885</v>
+        <v>0.9674154380749727</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.674114758574291</v>
+        <v>0.8059702099044728</v>
       </c>
       <c r="L10">
-        <v>0.5699204599003451</v>
+        <v>0.2544059331004433</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6896034484760278</v>
+        <v>1.688868435910308</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.272580893955649</v>
+        <v>0.7530505451268255</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04258833490864333</v>
+        <v>0.03220690152753747</v>
       </c>
       <c r="E11">
-        <v>0.06909972868779501</v>
+        <v>0.1628573174807286</v>
       </c>
       <c r="F11">
-        <v>1.117607611616108</v>
+        <v>0.9798527036754763</v>
       </c>
       <c r="G11">
-        <v>1.000078138430638</v>
+        <v>0.8255394951164305</v>
       </c>
       <c r="H11">
-        <v>0.5761167817948092</v>
+        <v>0.8362357601100712</v>
       </c>
       <c r="I11">
-        <v>0.4581148941609428</v>
+        <v>0.9637210042620339</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.871425525092491</v>
+        <v>0.862125545622888</v>
       </c>
       <c r="L11">
-        <v>0.6124016716389633</v>
+        <v>0.265306824510688</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6587679563477735</v>
+        <v>1.676188109702954</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.3045892818011</v>
+        <v>0.7612804592449436</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04316962089568221</v>
+        <v>0.03242557349994257</v>
       </c>
       <c r="E12">
-        <v>0.06901072697540944</v>
+        <v>0.1627076187418033</v>
       </c>
       <c r="F12">
-        <v>1.1415645222244</v>
+        <v>0.984157071100384</v>
       </c>
       <c r="G12">
-        <v>1.021863493928436</v>
+        <v>0.8294267574007108</v>
       </c>
       <c r="H12">
-        <v>0.5844757809046683</v>
+        <v>0.8369152175614829</v>
       </c>
       <c r="I12">
-        <v>0.4588934476210298</v>
+        <v>0.9623880573909531</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.946471422867916</v>
+        <v>0.8833878349480813</v>
       </c>
       <c r="L12">
-        <v>0.6285979569364599</v>
+        <v>0.269450790639695</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6473309834545091</v>
+        <v>1.671475503208757</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.297688634400231</v>
+        <v>0.7595062299875508</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04304443578974571</v>
+        <v>0.03237851446415618</v>
       </c>
       <c r="E13">
-        <v>0.06902950847112765</v>
+        <v>0.1627396661586151</v>
       </c>
       <c r="F13">
-        <v>1.136386431353969</v>
+        <v>0.9832259993342944</v>
       </c>
       <c r="G13">
-        <v>1.017152954449728</v>
+        <v>0.8285858356259297</v>
       </c>
       <c r="H13">
-        <v>0.5826657215867073</v>
+        <v>0.8367660552221565</v>
       </c>
       <c r="I13">
-        <v>0.4587176190670164</v>
+        <v>0.9626721932458082</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.930293451220734</v>
+        <v>0.8788087383940422</v>
       </c>
       <c r="L13">
-        <v>0.6251046986753579</v>
+        <v>0.2685576011047459</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6497832687067806</v>
+        <v>1.672486480102876</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.275211084952474</v>
+        <v>0.7537268268240496</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04263616024989147</v>
+        <v>0.03222490795632638</v>
       </c>
       <c r="E14">
-        <v>0.06909223294679778</v>
+        <v>0.1628449147356803</v>
       </c>
       <c r="F14">
-        <v>1.11957026710364</v>
+        <v>0.9802050021644249</v>
       </c>
       <c r="G14">
-        <v>1.001862080905184</v>
+        <v>0.8258576219890728</v>
       </c>
       <c r="H14">
-        <v>0.5768000946341374</v>
+        <v>0.8362903847183958</v>
       </c>
       <c r="I14">
-        <v>0.4581752902134753</v>
+        <v>0.9636100179761797</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.877592695372272</v>
+        <v>0.8638748595455752</v>
       </c>
       <c r="L14">
-        <v>0.6137318731032337</v>
+        <v>0.265647430047693</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6578221499872043</v>
+        <v>1.675798613187064</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.261463320609408</v>
+        <v>0.7501919664011609</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04238606162261505</v>
+        <v>0.03213071464705308</v>
       </c>
       <c r="E15">
-        <v>0.06913177738351628</v>
+        <v>0.1629099475741476</v>
       </c>
       <c r="F15">
-        <v>1.109323457603992</v>
+        <v>0.9783664078402836</v>
       </c>
       <c r="G15">
-        <v>0.9925499240042654</v>
+        <v>0.8241974303278283</v>
       </c>
       <c r="H15">
-        <v>0.5732355868762937</v>
+        <v>0.8360073059542117</v>
       </c>
       <c r="I15">
-        <v>0.4578667616772165</v>
+        <v>0.9641930655526281</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.845356380777389</v>
+        <v>0.854727088657711</v>
       </c>
       <c r="L15">
-        <v>0.6067803750843694</v>
+        <v>0.2638669528493267</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6627778056706273</v>
+        <v>1.677839004878248</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.18297935843205</v>
+        <v>0.7300150289187854</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04095245321525454</v>
+        <v>0.03158933159957655</v>
       </c>
       <c r="E16">
-        <v>0.06937526855840592</v>
+        <v>0.1632912962254403</v>
       </c>
       <c r="F16">
-        <v>1.051393537909959</v>
+        <v>0.9680117198264639</v>
       </c>
       <c r="G16">
-        <v>0.9399809898550302</v>
+        <v>0.8148506740816117</v>
       </c>
       <c r="H16">
-        <v>0.5532290537685753</v>
+        <v>0.8345120284513428</v>
       </c>
       <c r="I16">
-        <v>0.4564523567740437</v>
+        <v>0.9676661204808283</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.661263071786891</v>
+        <v>0.802299994575236</v>
       </c>
       <c r="L16">
-        <v>0.5671587912745224</v>
+        <v>0.2536957811087461</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6916514732345362</v>
+        <v>1.689709594893786</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.135084426132693</v>
+        <v>0.7177088315311835</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0400725067626766</v>
+        <v>0.03125579272265355</v>
       </c>
       <c r="E17">
-        <v>0.06953934074353318</v>
+        <v>0.1635329913781212</v>
       </c>
       <c r="F17">
-        <v>1.016528211739981</v>
+        <v>0.9618213136222238</v>
       </c>
       <c r="G17">
-        <v>0.9084079960709062</v>
+        <v>0.8092656456409912</v>
       </c>
       <c r="H17">
-        <v>0.5413154371681372</v>
+        <v>0.8337079604722533</v>
       </c>
       <c r="I17">
-        <v>0.4558906545302293</v>
+        <v>0.9699143605012637</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.548855793301527</v>
+        <v>0.7701335835802467</v>
       </c>
       <c r="L17">
-        <v>0.5430327159771622</v>
+        <v>0.2474847164564693</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7097779937957878</v>
+        <v>1.697150491542398</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.107623788488439</v>
+        <v>0.7106571355183462</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03956616418890491</v>
+        <v>0.03106343254120247</v>
       </c>
       <c r="E18">
-        <v>0.06963897500209137</v>
+        <v>0.1636748610170324</v>
       </c>
       <c r="F18">
-        <v>0.9967093595090262</v>
+        <v>0.9583201816510467</v>
       </c>
       <c r="G18">
-        <v>0.8904838028401656</v>
+        <v>0.8061079153073081</v>
       </c>
       <c r="H18">
-        <v>0.5345893924964287</v>
+        <v>0.8332870848432066</v>
       </c>
       <c r="I18">
-        <v>0.4556763360924663</v>
+        <v>0.9712507128724539</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.484379610424043</v>
+        <v>0.7516309321389656</v>
       </c>
       <c r="L18">
-        <v>0.5292181120532291</v>
+        <v>0.2439228117282539</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7203518988199367</v>
+        <v>1.701488572925239</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.098340567173835</v>
+        <v>0.7082741189466617</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03939468318196049</v>
+        <v>0.03099821416405035</v>
       </c>
       <c r="E19">
-        <v>0.06967360113589738</v>
+        <v>0.163723386101345</v>
       </c>
       <c r="F19">
-        <v>0.9900382070244547</v>
+        <v>0.9571449595948138</v>
       </c>
       <c r="G19">
-        <v>0.8844542927668044</v>
+        <v>0.8050481362204209</v>
       </c>
       <c r="H19">
-        <v>0.5323332319354961</v>
+        <v>0.8331517279158476</v>
       </c>
       <c r="I19">
-        <v>0.4556221099691768</v>
+        <v>0.9717106020868016</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.462578051098745</v>
+        <v>0.7453660261288064</v>
       </c>
       <c r="L19">
-        <v>0.5245509945787319</v>
+        <v>0.2427186231262795</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7239570993016784</v>
+        <v>1.702967377890776</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.14017377057732</v>
+        <v>0.719016107731818</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04016620038751739</v>
+        <v>0.03129135214102519</v>
       </c>
       <c r="E20">
-        <v>0.06952132715093184</v>
+        <v>0.1635069673539427</v>
       </c>
       <c r="F20">
-        <v>1.020215112801907</v>
+        <v>0.9624741412830673</v>
       </c>
       <c r="G20">
-        <v>0.9117443129340614</v>
+        <v>0.809854525360123</v>
       </c>
       <c r="H20">
-        <v>0.5425704559523155</v>
+        <v>0.8337892488777783</v>
       </c>
       <c r="I20">
-        <v>0.4559391110711388</v>
+        <v>0.9696705578441396</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.560803004174204</v>
+        <v>0.7735578987303882</v>
       </c>
       <c r="L20">
-        <v>0.5455944593905855</v>
+        <v>0.2481448049185246</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7078329893783923</v>
+        <v>1.69635236335591</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.281809005256008</v>
+        <v>0.7554232967033272</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04275608415059651</v>
+        <v>0.03227004778968023</v>
       </c>
       <c r="E21">
-        <v>0.06907357417513649</v>
+        <v>0.1628138829489392</v>
       </c>
       <c r="F21">
-        <v>1.124498341812313</v>
+        <v>0.9810898716528982</v>
       </c>
       <c r="G21">
-        <v>1.006342062174923</v>
+        <v>0.8266566886652242</v>
       </c>
       <c r="H21">
-        <v>0.5785170264596076</v>
+        <v>0.836428374411966</v>
       </c>
       <c r="I21">
-        <v>0.4583296318576586</v>
+        <v>0.9633327632611355</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.893062828040655</v>
+        <v>0.868261373052178</v>
       </c>
       <c r="L21">
-        <v>0.6170692616242235</v>
+        <v>0.2665017830837257</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.655454324908435</v>
+        <v>1.674823338737459</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.375273093925784</v>
+        <v>0.779450244596859</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04444778623834367</v>
+        <v>0.03290499717726902</v>
       </c>
       <c r="E22">
-        <v>0.06883086603051169</v>
+        <v>0.1623862153184956</v>
       </c>
       <c r="F22">
-        <v>1.195017257283595</v>
+        <v>0.9937867169059444</v>
       </c>
       <c r="G22">
-        <v>1.070546588133681</v>
+        <v>0.8381262903645705</v>
       </c>
       <c r="H22">
-        <v>0.6032634199657991</v>
+        <v>0.8385239002459457</v>
       </c>
       <c r="I22">
-        <v>0.460941013976651</v>
+        <v>0.9595756759890079</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.11215671778001</v>
+        <v>0.9301407213837081</v>
       </c>
       <c r="L22">
-        <v>0.6644278672214057</v>
+        <v>0.2785925686382029</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6226258161233282</v>
+        <v>1.6612726137494</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.325301359725074</v>
+        <v>0.7666054719719568</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0435449253442286</v>
+        <v>0.03256654510997237</v>
       </c>
       <c r="E23">
-        <v>0.06895567724234386</v>
+        <v>0.1626121592615921</v>
       </c>
       <c r="F23">
-        <v>1.15714979833173</v>
+        <v>0.9869615824943452</v>
       </c>
       <c r="G23">
-        <v>1.036047456423745</v>
+        <v>0.8319599639976758</v>
       </c>
       <c r="H23">
-        <v>0.5899346144719715</v>
+        <v>0.8373715476368915</v>
       </c>
       <c r="I23">
-        <v>0.459447203214026</v>
+        <v>0.9615456681142263</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.995025942861361</v>
+        <v>0.897116029803442</v>
       </c>
       <c r="L23">
-        <v>0.6390878888311846</v>
+        <v>0.272130957481977</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6400141839929034</v>
+        <v>1.668457294887219</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.137872646275753</v>
+        <v>0.7184250155467566</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04012384291114302</v>
+        <v>0.0312752776097156</v>
       </c>
       <c r="E24">
-        <v>0.06952945459841708</v>
+        <v>0.1635187237327964</v>
       </c>
       <c r="F24">
-        <v>1.018547564806397</v>
+        <v>0.9621788178183976</v>
       </c>
       <c r="G24">
-        <v>0.9102352583542626</v>
+        <v>0.809588127215946</v>
       </c>
       <c r="H24">
-        <v>0.5420026794356261</v>
+        <v>0.8337523694485043</v>
       </c>
       <c r="I24">
-        <v>0.4559168664379385</v>
+        <v>0.9697806445613608</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.555401212238706</v>
+        <v>0.772009796209062</v>
       </c>
       <c r="L24">
-        <v>0.5444361223959078</v>
+        <v>0.247846351140268</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.708711851092886</v>
+        <v>1.69671300955754</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9389763333412589</v>
+        <v>0.667469592660126</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03642474903767834</v>
+        <v>0.02986269560136634</v>
       </c>
       <c r="E25">
-        <v>0.07034829226567507</v>
+        <v>0.1646057394712992</v>
       </c>
       <c r="F25">
-        <v>0.8778842674249887</v>
+        <v>0.9377177053686125</v>
       </c>
       <c r="G25">
-        <v>0.783403234121991</v>
+        <v>0.7875438223978364</v>
       </c>
       <c r="H25">
-        <v>0.495068601726814</v>
+        <v>0.8314388896689877</v>
       </c>
       <c r="I25">
-        <v>0.4562268220077321</v>
+        <v>0.9803158810099823</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.087805256202074</v>
+        <v>0.637010607746987</v>
       </c>
       <c r="L25">
-        <v>0.4446662832236257</v>
+        <v>0.2220543745433474</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7884300074158848</v>
+        <v>1.72941894248982</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.630832113316842</v>
+        <v>0.7947309099214692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02880582012058142</v>
+        <v>0.03368818419125574</v>
       </c>
       <c r="E2">
-        <v>0.1655006580538818</v>
+        <v>0.07110946868744672</v>
       </c>
       <c r="F2">
-        <v>0.9216479529410009</v>
+        <v>0.7805842928530495</v>
       </c>
       <c r="G2">
-        <v>0.7730921049688391</v>
+        <v>0.6962892781049419</v>
       </c>
       <c r="H2">
-        <v>0.8311006263541998</v>
+        <v>0.4639908737105003</v>
       </c>
       <c r="I2">
-        <v>0.9894943373427445</v>
+        <v>0.4596056313262089</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5375561185338711</v>
+        <v>1.747398255543203</v>
       </c>
       <c r="L2">
-        <v>0.203407482233942</v>
+        <v>0.3727439450643715</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.755416247555921</v>
+        <v>0.8515548811905624</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6065567131176977</v>
+        <v>0.6980685797022943</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02807919792270042</v>
+        <v>0.03182328857640471</v>
       </c>
       <c r="E3">
-        <v>0.1661664880952003</v>
+        <v>0.07171825820264766</v>
       </c>
       <c r="F3">
-        <v>0.9119622753842123</v>
+        <v>0.7179537580640982</v>
       </c>
       <c r="G3">
-        <v>0.7644004968154121</v>
+        <v>0.6405512070562196</v>
       </c>
       <c r="H3">
-        <v>0.8317218170034124</v>
+        <v>0.4448206746789651</v>
       </c>
       <c r="I3">
-        <v>0.9966014868725495</v>
+        <v>0.4636829284947162</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4701167810797813</v>
+        <v>1.518317535584515</v>
       </c>
       <c r="L3">
-        <v>0.1909835505091166</v>
+        <v>0.3247515897338644</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.774230150580513</v>
+        <v>0.8969159346289768</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5919269093389232</v>
+        <v>0.6391731609388671</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02762798263261956</v>
+        <v>0.03067253628727329</v>
       </c>
       <c r="E4">
-        <v>0.1666046963100674</v>
+        <v>0.07213622500451256</v>
       </c>
       <c r="F4">
-        <v>0.9066079626795229</v>
+        <v>0.6809495753735533</v>
       </c>
       <c r="G4">
-        <v>0.759605367938164</v>
+        <v>0.6077701809651472</v>
       </c>
       <c r="H4">
-        <v>0.8325224494669214</v>
+        <v>0.4338986616442781</v>
       </c>
       <c r="I4">
-        <v>1.001402809579425</v>
+        <v>0.4670136099400963</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4286897552950393</v>
+        <v>1.378217518349459</v>
       </c>
       <c r="L4">
-        <v>0.1834602331612274</v>
+        <v>0.2955909228583238</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.786371471599869</v>
+        <v>0.9259850124004139</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5860348481664062</v>
+        <v>0.6152760243474802</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02744284522351847</v>
+        <v>0.03020208812154479</v>
       </c>
       <c r="E5">
-        <v>0.1667906762306595</v>
+        <v>0.07231742998440116</v>
       </c>
       <c r="F5">
-        <v>0.9045749419929479</v>
+        <v>0.6662098439177697</v>
       </c>
       <c r="G5">
-        <v>0.7577872463727573</v>
+        <v>0.5947486760800018</v>
       </c>
       <c r="H5">
-        <v>0.8329541244520868</v>
+        <v>0.4296495319096607</v>
       </c>
       <c r="I5">
-        <v>1.003469415697367</v>
+        <v>0.468571240335244</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4118034328219835</v>
+        <v>1.32123298247464</v>
       </c>
       <c r="L5">
-        <v>0.1804208777293184</v>
+        <v>0.2837762331379565</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.791467344747128</v>
+        <v>0.9381290069257133</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5850606991334928</v>
+        <v>0.6113138374888933</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02741202729313486</v>
+        <v>0.03012387751677892</v>
       </c>
       <c r="E6">
-        <v>0.1668220058979855</v>
+        <v>0.07234816982242931</v>
       </c>
       <c r="F6">
-        <v>0.9042463498408182</v>
+        <v>0.6637821352446025</v>
       </c>
       <c r="G6">
-        <v>0.7574935514909384</v>
+        <v>0.5926060974366436</v>
       </c>
       <c r="H6">
-        <v>0.8330321701810135</v>
+        <v>0.4289558184342894</v>
       </c>
       <c r="I6">
-        <v>1.003819219926868</v>
+        <v>0.4688417677139789</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.408999210731821</v>
+        <v>1.31177631293977</v>
       </c>
       <c r="L6">
-        <v>0.179917794459385</v>
+        <v>0.2818183077705214</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.792322459253066</v>
+        <v>0.940163288148506</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5918471641157055</v>
+        <v>0.638850472398957</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02762549090699906</v>
+        <v>0.0306661978538969</v>
       </c>
       <c r="E7">
-        <v>0.1666071744878943</v>
+        <v>0.07213862502945423</v>
       </c>
       <c r="F7">
-        <v>0.9065799419303886</v>
+        <v>0.6807494466973694</v>
       </c>
       <c r="G7">
-        <v>0.7595802980571591</v>
+        <v>0.6075932366618844</v>
       </c>
       <c r="H7">
-        <v>0.8325278443919046</v>
+        <v>0.4338405547867836</v>
       </c>
       <c r="I7">
-        <v>1.001430235034995</v>
+        <v>0.4670338153138758</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4284620381503998</v>
+        <v>1.377448611913366</v>
       </c>
       <c r="L7">
-        <v>0.1834191361617599</v>
+        <v>0.2954313194629776</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.786439596396033</v>
+        <v>0.9261475937346724</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6224050611502037</v>
+        <v>0.7613001173423868</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02855633834754912</v>
+        <v>0.03304630314233492</v>
       </c>
       <c r="E8">
-        <v>0.1657241475261813</v>
+        <v>0.07131006993227307</v>
       </c>
       <c r="F8">
-        <v>0.91818521828813</v>
+        <v>0.7586724931150712</v>
       </c>
       <c r="G8">
-        <v>0.7699826860930159</v>
+        <v>0.6767555115349637</v>
       </c>
       <c r="H8">
-        <v>0.8312277985958048</v>
+        <v>0.4571976139708198</v>
       </c>
       <c r="I8">
-        <v>0.9918540866977672</v>
+        <v>0.4608350684031386</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5143071406344006</v>
+        <v>1.668275444576267</v>
       </c>
       <c r="L8">
-        <v>0.1991019365206483</v>
+        <v>0.3561271370687393</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.76178090023776</v>
+        <v>0.8669378206847185</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6844977810303021</v>
+        <v>1.005593821349834</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03034114917130282</v>
+        <v>0.03767248023801528</v>
       </c>
       <c r="E9">
-        <v>0.1642249348539486</v>
+        <v>0.07004703802588019</v>
       </c>
       <c r="F9">
-        <v>0.9456551895619754</v>
+        <v>0.9242084165332614</v>
       </c>
       <c r="G9">
-        <v>0.7946920479179624</v>
+        <v>0.8250662276202974</v>
       </c>
       <c r="H9">
-        <v>0.8320059657979755</v>
+        <v>0.5102985547817553</v>
       </c>
       <c r="I9">
-        <v>0.9765462843245523</v>
+        <v>0.4556080800071349</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6824933106811386</v>
+        <v>2.244598905299654</v>
       </c>
       <c r="L9">
-        <v>0.2306889013077011</v>
+        <v>0.4780056222064957</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.71810425943672</v>
+        <v>0.7608632888897553</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7314228318133473</v>
+        <v>1.188456721837014</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03162732032737381</v>
+        <v>0.04105283462824616</v>
       </c>
       <c r="E10">
-        <v>0.1632641033629265</v>
+        <v>0.06935726985852764</v>
       </c>
       <c r="F10">
-        <v>0.9687261447779605</v>
+        <v>1.055404618225381</v>
       </c>
       <c r="G10">
-        <v>0.815495373888794</v>
+        <v>0.9436165488423001</v>
       </c>
       <c r="H10">
-        <v>0.8346094163364484</v>
+        <v>0.5546060197990101</v>
       </c>
       <c r="I10">
-        <v>0.9674154380749727</v>
+        <v>0.4565314522272885</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8059702099044728</v>
+        <v>2.674114758574291</v>
       </c>
       <c r="L10">
-        <v>0.2544059331004433</v>
+        <v>0.5699204599003735</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.688868435910308</v>
+        <v>0.6896034484760314</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7530505451268255</v>
+        <v>1.272580893955649</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03220690152753747</v>
+        <v>0.04258833490852965</v>
       </c>
       <c r="E11">
-        <v>0.1628573174807286</v>
+        <v>0.06909972868778036</v>
       </c>
       <c r="F11">
-        <v>0.9798527036754763</v>
+        <v>1.117607611616094</v>
       </c>
       <c r="G11">
-        <v>0.8255394951164305</v>
+        <v>1.000078138430652</v>
       </c>
       <c r="H11">
-        <v>0.8362357601100712</v>
+        <v>0.5761167817948234</v>
       </c>
       <c r="I11">
-        <v>0.9637210042620339</v>
+        <v>0.4581148941609428</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.862125545622888</v>
+        <v>2.871425525092604</v>
       </c>
       <c r="L11">
-        <v>0.265306824510688</v>
+        <v>0.6124016716390344</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.676188109702954</v>
+        <v>0.6587679563477717</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7612804592449436</v>
+        <v>1.304589281801299</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03242557349994257</v>
+        <v>0.04316962089561116</v>
       </c>
       <c r="E12">
-        <v>0.1627076187418033</v>
+        <v>0.06901072697540878</v>
       </c>
       <c r="F12">
-        <v>0.984157071100384</v>
+        <v>1.1415645222244</v>
       </c>
       <c r="G12">
-        <v>0.8294267574007108</v>
+        <v>1.021863493928407</v>
       </c>
       <c r="H12">
-        <v>0.8369152175614829</v>
+        <v>0.5844757809046683</v>
       </c>
       <c r="I12">
-        <v>0.9623880573909531</v>
+        <v>0.458893447621044</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8833878349480813</v>
+        <v>2.946471422867887</v>
       </c>
       <c r="L12">
-        <v>0.269450790639695</v>
+        <v>0.6285979569363036</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.671475503208757</v>
+        <v>0.6473309834545198</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7595062299875508</v>
+        <v>1.297688634400316</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03237851446415618</v>
+        <v>0.04304443578973149</v>
       </c>
       <c r="E13">
-        <v>0.1627396661586151</v>
+        <v>0.06902950847114098</v>
       </c>
       <c r="F13">
-        <v>0.9832259993342944</v>
+        <v>1.136386431353969</v>
       </c>
       <c r="G13">
-        <v>0.8285858356259297</v>
+        <v>1.01715295444977</v>
       </c>
       <c r="H13">
-        <v>0.8367660552221565</v>
+        <v>0.5826657215867215</v>
       </c>
       <c r="I13">
-        <v>0.9626721932458082</v>
+        <v>0.4587176190670235</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8788087383940422</v>
+        <v>2.930293451220706</v>
       </c>
       <c r="L13">
-        <v>0.2685576011047459</v>
+        <v>0.6251046986752726</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.672486480102876</v>
+        <v>0.6497832687067771</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7537268268240496</v>
+        <v>1.27521108495236</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03222490795632638</v>
+        <v>0.04263616024982042</v>
       </c>
       <c r="E14">
-        <v>0.1628449147356803</v>
+        <v>0.06909223294675226</v>
       </c>
       <c r="F14">
-        <v>0.9802050021644249</v>
+        <v>1.11957026710364</v>
       </c>
       <c r="G14">
-        <v>0.8258576219890728</v>
+        <v>1.001862080905212</v>
       </c>
       <c r="H14">
-        <v>0.8362903847183958</v>
+        <v>0.5768000946341374</v>
       </c>
       <c r="I14">
-        <v>0.9636100179761797</v>
+        <v>0.4581752902134824</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8638748595455752</v>
+        <v>2.877592695372215</v>
       </c>
       <c r="L14">
-        <v>0.265647430047693</v>
+        <v>0.6137318731032195</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.675798613187064</v>
+        <v>0.657822149987199</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7501919664011609</v>
+        <v>1.261463320609209</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03213071464705308</v>
+        <v>0.04238606162260794</v>
       </c>
       <c r="E15">
-        <v>0.1629099475741476</v>
+        <v>0.06913177738351672</v>
       </c>
       <c r="F15">
-        <v>0.9783664078402836</v>
+        <v>1.109323457603992</v>
       </c>
       <c r="G15">
-        <v>0.8241974303278283</v>
+        <v>0.9925499240042512</v>
       </c>
       <c r="H15">
-        <v>0.8360073059542117</v>
+        <v>0.5732355868763221</v>
       </c>
       <c r="I15">
-        <v>0.9641930655526281</v>
+        <v>0.4578667616771952</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.854727088657711</v>
+        <v>2.845356380777503</v>
       </c>
       <c r="L15">
-        <v>0.2638669528493267</v>
+        <v>0.6067803750843694</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.677839004878248</v>
+        <v>0.6627778056706095</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7300150289187854</v>
+        <v>1.182979358432107</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03158933159957655</v>
+        <v>0.04095245321525454</v>
       </c>
       <c r="E16">
-        <v>0.1632912962254403</v>
+        <v>0.06937526855843767</v>
       </c>
       <c r="F16">
-        <v>0.9680117198264639</v>
+        <v>1.051393537909959</v>
       </c>
       <c r="G16">
-        <v>0.8148506740816117</v>
+        <v>0.9399809898549876</v>
       </c>
       <c r="H16">
-        <v>0.8345120284513428</v>
+        <v>0.5532290537685753</v>
       </c>
       <c r="I16">
-        <v>0.9676661204808283</v>
+        <v>0.4564523567740721</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.802299994575236</v>
+        <v>2.661263071786919</v>
       </c>
       <c r="L16">
-        <v>0.2536957811087461</v>
+        <v>0.5671587912745224</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.689709594893786</v>
+        <v>0.6916514732344687</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7177088315311835</v>
+        <v>1.135084426132579</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03125579272265355</v>
+        <v>0.04007250676259844</v>
       </c>
       <c r="E17">
-        <v>0.1635329913781212</v>
+        <v>0.06953934074353985</v>
       </c>
       <c r="F17">
-        <v>0.9618213136222238</v>
+        <v>1.016528211739953</v>
       </c>
       <c r="G17">
-        <v>0.8092656456409912</v>
+        <v>0.9084079960708493</v>
       </c>
       <c r="H17">
-        <v>0.8337079604722533</v>
+        <v>0.5413154371681372</v>
       </c>
       <c r="I17">
-        <v>0.9699143605012637</v>
+        <v>0.4558906545302364</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7701335835802467</v>
+        <v>2.548855793301499</v>
       </c>
       <c r="L17">
-        <v>0.2474847164564693</v>
+        <v>0.5430327159771622</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.697150491542398</v>
+        <v>0.7097779937957149</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7106571355183462</v>
+        <v>1.107623788488382</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03106343254120247</v>
+        <v>0.0395661641887699</v>
       </c>
       <c r="E18">
-        <v>0.1636748610170324</v>
+        <v>0.06963897500208915</v>
       </c>
       <c r="F18">
-        <v>0.9583201816510467</v>
+        <v>0.9967093595090262</v>
       </c>
       <c r="G18">
-        <v>0.8061079153073081</v>
+        <v>0.8904838028401372</v>
       </c>
       <c r="H18">
-        <v>0.8332870848432066</v>
+        <v>0.5345893924964571</v>
       </c>
       <c r="I18">
-        <v>0.9712507128724539</v>
+        <v>0.4556763360924663</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7516309321389656</v>
+        <v>2.484379610424014</v>
       </c>
       <c r="L18">
-        <v>0.2439228117282539</v>
+        <v>0.5292181120533002</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.701488572925239</v>
+        <v>0.7203518988200006</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7082741189466617</v>
+        <v>1.098340567173835</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03099821416405035</v>
+        <v>0.03939468318189654</v>
       </c>
       <c r="E19">
-        <v>0.163723386101345</v>
+        <v>0.06967360113589316</v>
       </c>
       <c r="F19">
-        <v>0.9571449595948138</v>
+        <v>0.9900382070244689</v>
       </c>
       <c r="G19">
-        <v>0.8050481362204209</v>
+        <v>0.884454292766776</v>
       </c>
       <c r="H19">
-        <v>0.8331517279158476</v>
+        <v>0.5323332319354961</v>
       </c>
       <c r="I19">
-        <v>0.9717106020868016</v>
+        <v>0.455622109969184</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7453660261288064</v>
+        <v>2.462578051098831</v>
       </c>
       <c r="L19">
-        <v>0.2427186231262795</v>
+        <v>0.5245509945788598</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.702967377890776</v>
+        <v>0.723957099301682</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.719016107731818</v>
+        <v>1.140173770577405</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03129135214102519</v>
+        <v>0.04016620038751739</v>
       </c>
       <c r="E20">
-        <v>0.1635069673539427</v>
+        <v>0.06952132715094939</v>
       </c>
       <c r="F20">
-        <v>0.9624741412830673</v>
+        <v>1.020215112801907</v>
       </c>
       <c r="G20">
-        <v>0.809854525360123</v>
+        <v>0.9117443129341467</v>
       </c>
       <c r="H20">
-        <v>0.8337892488777783</v>
+        <v>0.5425704559523155</v>
       </c>
       <c r="I20">
-        <v>0.9696705578441396</v>
+        <v>0.4559391110711459</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7735578987303882</v>
+        <v>2.560803004174261</v>
       </c>
       <c r="L20">
-        <v>0.2481448049185246</v>
+        <v>0.5455944593906565</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.69635236335591</v>
+        <v>0.7078329893783355</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7554232967033272</v>
+        <v>1.281809005256122</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03227004778968023</v>
+        <v>0.04275608415059651</v>
       </c>
       <c r="E21">
-        <v>0.1628138829489392</v>
+        <v>0.06907357417513826</v>
       </c>
       <c r="F21">
-        <v>0.9810898716528982</v>
+        <v>1.124498341812327</v>
       </c>
       <c r="G21">
-        <v>0.8266566886652242</v>
+        <v>1.00634206217488</v>
       </c>
       <c r="H21">
-        <v>0.836428374411966</v>
+        <v>0.5785170264596076</v>
       </c>
       <c r="I21">
-        <v>0.9633327632611355</v>
+        <v>0.4583296318576657</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.868261373052178</v>
+        <v>2.893062828040627</v>
       </c>
       <c r="L21">
-        <v>0.2665017830837257</v>
+        <v>0.6170692616242377</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.674823338737459</v>
+        <v>0.6554543249084297</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.779450244596859</v>
+        <v>1.375273093925784</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03290499717726902</v>
+        <v>0.04444778623821577</v>
       </c>
       <c r="E22">
-        <v>0.1623862153184956</v>
+        <v>0.06883086603049282</v>
       </c>
       <c r="F22">
-        <v>0.9937867169059444</v>
+        <v>1.195017257283595</v>
       </c>
       <c r="G22">
-        <v>0.8381262903645705</v>
+        <v>1.070546588133723</v>
       </c>
       <c r="H22">
-        <v>0.8385239002459457</v>
+        <v>0.6032634199657991</v>
       </c>
       <c r="I22">
-        <v>0.9595756759890079</v>
+        <v>0.4609410139766297</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9301407213837081</v>
+        <v>3.112156717779953</v>
       </c>
       <c r="L22">
-        <v>0.2785925686382029</v>
+        <v>0.6644278672214057</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.6612726137494</v>
+        <v>0.6226258161233105</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7666054719719568</v>
+        <v>1.325301359724904</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03256654510997237</v>
+        <v>0.04354492534433518</v>
       </c>
       <c r="E23">
-        <v>0.1626121592615921</v>
+        <v>0.06895567724232943</v>
       </c>
       <c r="F23">
-        <v>0.9869615824943452</v>
+        <v>1.15714979833173</v>
       </c>
       <c r="G23">
-        <v>0.8319599639976758</v>
+        <v>1.036047456423731</v>
       </c>
       <c r="H23">
-        <v>0.8373715476368915</v>
+        <v>0.5899346144720852</v>
       </c>
       <c r="I23">
-        <v>0.9615456681142263</v>
+        <v>0.459447203214026</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.897116029803442</v>
+        <v>2.995025942861446</v>
       </c>
       <c r="L23">
-        <v>0.272130957481977</v>
+        <v>0.6390878888312699</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.668457294887219</v>
+        <v>0.6400141839928892</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7184250155467566</v>
+        <v>1.13787264627581</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0312752776097156</v>
+        <v>0.04012384291132776</v>
       </c>
       <c r="E24">
-        <v>0.1635187237327964</v>
+        <v>0.06952945459841731</v>
       </c>
       <c r="F24">
-        <v>0.9621788178183976</v>
+        <v>1.018547564806411</v>
       </c>
       <c r="G24">
-        <v>0.809588127215946</v>
+        <v>0.9102352583542199</v>
       </c>
       <c r="H24">
-        <v>0.8337523694485043</v>
+        <v>0.5420026794356119</v>
       </c>
       <c r="I24">
-        <v>0.9697806445613608</v>
+        <v>0.4559168664379385</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.772009796209062</v>
+        <v>2.555401212238735</v>
       </c>
       <c r="L24">
-        <v>0.247846351140268</v>
+        <v>0.5444361223958367</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.69671300955754</v>
+        <v>0.7087118510928931</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.667469592660126</v>
+        <v>0.938976333341202</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02986269560136634</v>
+        <v>0.03642474903749715</v>
       </c>
       <c r="E25">
-        <v>0.1646057394712992</v>
+        <v>0.07034829226566108</v>
       </c>
       <c r="F25">
-        <v>0.9377177053686125</v>
+        <v>0.8778842674249887</v>
       </c>
       <c r="G25">
-        <v>0.7875438223978364</v>
+        <v>0.7834032341219768</v>
       </c>
       <c r="H25">
-        <v>0.8314388896689877</v>
+        <v>0.495068601726814</v>
       </c>
       <c r="I25">
-        <v>0.9803158810099823</v>
+        <v>0.4562268220077179</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.637010607746987</v>
+        <v>2.087805256201989</v>
       </c>
       <c r="L25">
-        <v>0.2220543745433474</v>
+        <v>0.4446662832236683</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.72941894248982</v>
+        <v>0.7884300074158741</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7947309099214692</v>
+        <v>0.1790235483354792</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03368818419125574</v>
+        <v>0.02774069721042238</v>
       </c>
       <c r="E2">
-        <v>0.07110946868744672</v>
+        <v>0.2981766647907236</v>
       </c>
       <c r="F2">
-        <v>0.7805842928530495</v>
+        <v>0.8815848660780858</v>
       </c>
       <c r="G2">
-        <v>0.6962892781049419</v>
+        <v>0.8090336687134254</v>
       </c>
       <c r="H2">
-        <v>0.4639908737105003</v>
+        <v>0.001348933242862671</v>
       </c>
       <c r="I2">
-        <v>0.4596056313262089</v>
+        <v>0.003652496149538997</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5179220149288852</v>
       </c>
       <c r="K2">
-        <v>1.747398255543203</v>
+        <v>0.3086356038469287</v>
       </c>
       <c r="L2">
-        <v>0.3727439450643715</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.213796365455408</v>
       </c>
       <c r="N2">
-        <v>0.8515548811905624</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8289405559862999</v>
+      </c>
+      <c r="P2">
+        <v>0.8381601916888854</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6980685797022943</v>
+        <v>0.1557711644458522</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03182328857640471</v>
+        <v>0.02620531366353163</v>
       </c>
       <c r="E3">
-        <v>0.07171825820264766</v>
+        <v>0.2625287555460503</v>
       </c>
       <c r="F3">
-        <v>0.7179537580640982</v>
+        <v>0.8015953602942147</v>
       </c>
       <c r="G3">
-        <v>0.6405512070562196</v>
+        <v>0.7340403232223167</v>
       </c>
       <c r="H3">
-        <v>0.4448206746789651</v>
+        <v>0.0004407903471788099</v>
       </c>
       <c r="I3">
-        <v>0.4636829284947162</v>
+        <v>0.004664872036529211</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4879819836412764</v>
       </c>
       <c r="K3">
-        <v>1.518317535584515</v>
+        <v>0.313388361230917</v>
       </c>
       <c r="L3">
-        <v>0.3247515897338644</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.925249075541757</v>
       </c>
       <c r="N3">
-        <v>0.8969159346289768</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7210141625108051</v>
+      </c>
+      <c r="P3">
+        <v>0.8697716876706734</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6391731609388671</v>
+        <v>0.1411424850056306</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03067253628727329</v>
+        <v>0.02525177465885875</v>
       </c>
       <c r="E4">
-        <v>0.07213622500451256</v>
+        <v>0.2406601471713472</v>
       </c>
       <c r="F4">
-        <v>0.6809495753735533</v>
+        <v>0.7534041879297178</v>
       </c>
       <c r="G4">
-        <v>0.6077701809651472</v>
+        <v>0.6888454114247935</v>
       </c>
       <c r="H4">
-        <v>0.4338986616442781</v>
+        <v>0.0001212662404062037</v>
       </c>
       <c r="I4">
-        <v>0.4670136099400963</v>
+        <v>0.005411578435684739</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4701178090860907</v>
       </c>
       <c r="K4">
-        <v>1.378217518349459</v>
+        <v>0.3163732287998844</v>
       </c>
       <c r="L4">
-        <v>0.2955909228583238</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.749061236093581</v>
       </c>
       <c r="N4">
-        <v>0.9259850124004139</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6549732206403718</v>
+      </c>
+      <c r="P4">
+        <v>0.8896758580302242</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6152760243474802</v>
+        <v>0.1343381524604013</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03020208812154479</v>
+        <v>0.02487825377693298</v>
       </c>
       <c r="E5">
-        <v>0.07231742998440116</v>
+        <v>0.231668692507931</v>
       </c>
       <c r="F5">
-        <v>0.6662098439177697</v>
+        <v>0.7334614794740375</v>
       </c>
       <c r="G5">
-        <v>0.5947486760800018</v>
+        <v>0.6700432905189899</v>
       </c>
       <c r="H5">
-        <v>0.4296495319096607</v>
+        <v>4.700338193530662E-05</v>
       </c>
       <c r="I5">
-        <v>0.468571240335244</v>
+        <v>0.005827284408063793</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4626610297864886</v>
       </c>
       <c r="K5">
-        <v>1.32123298247464</v>
+        <v>0.3172093088526236</v>
       </c>
       <c r="L5">
-        <v>0.2837762331379565</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.678561027044566</v>
       </c>
       <c r="N5">
-        <v>0.9381290069257133</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6282923869081856</v>
+      </c>
+      <c r="P5">
+        <v>0.8975876245079064</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6113138374888933</v>
+        <v>0.1322795850591802</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03012387751677892</v>
+        <v>0.0248379364956719</v>
       </c>
       <c r="E6">
-        <v>0.07234816982242931</v>
+        <v>0.2300784983351889</v>
       </c>
       <c r="F6">
-        <v>0.6637821352446025</v>
+        <v>0.7295311848056585</v>
       </c>
       <c r="G6">
-        <v>0.5926060974366436</v>
+        <v>0.6662249201193902</v>
       </c>
       <c r="H6">
-        <v>0.4289558184342894</v>
+        <v>3.787588938841679E-05</v>
       </c>
       <c r="I6">
-        <v>0.4688417677139789</v>
+        <v>0.006004503273547179</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.461065198641009</v>
       </c>
       <c r="K6">
-        <v>1.31177631293977</v>
+        <v>0.3168662875715906</v>
       </c>
       <c r="L6">
-        <v>0.2818183077705214</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.668201533710402</v>
       </c>
       <c r="N6">
-        <v>0.940163288148506</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6240920861990205</v>
+      </c>
+      <c r="P6">
+        <v>0.8985203200676644</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.638850472398957</v>
+        <v>0.1385158223287135</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0306661978538969</v>
+        <v>0.02530690137170311</v>
       </c>
       <c r="E7">
-        <v>0.07213862502945423</v>
+        <v>0.2402734116277401</v>
       </c>
       <c r="F7">
-        <v>0.6807494466973694</v>
+        <v>0.7514107136482124</v>
       </c>
       <c r="G7">
-        <v>0.6075932366618844</v>
+        <v>0.6866585008947084</v>
       </c>
       <c r="H7">
-        <v>0.4338405547867836</v>
+        <v>0.0001196695842973217</v>
       </c>
       <c r="I7">
-        <v>0.4670338153138758</v>
+        <v>0.005691626235046598</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4690215019088839</v>
       </c>
       <c r="K7">
-        <v>1.377448611913366</v>
+        <v>0.3150676086927717</v>
       </c>
       <c r="L7">
-        <v>0.2954313194629776</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.751765536103079</v>
       </c>
       <c r="N7">
-        <v>0.9261475937346724</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6552363130973262</v>
+      </c>
+      <c r="P7">
+        <v>0.8887374375477446</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7613001173423868</v>
+        <v>0.1676899143567425</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03304630314233492</v>
+        <v>0.02729504745350653</v>
       </c>
       <c r="E8">
-        <v>0.07131006993227307</v>
+        <v>0.285524025357681</v>
       </c>
       <c r="F8">
-        <v>0.7586724931150712</v>
+        <v>0.8515191227194094</v>
       </c>
       <c r="G8">
-        <v>0.6767555115349637</v>
+        <v>0.7804285216287496</v>
       </c>
       <c r="H8">
-        <v>0.4571976139708198</v>
+        <v>0.0009827230664498643</v>
       </c>
       <c r="I8">
-        <v>0.4608350684031386</v>
+        <v>0.004305899883514819</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5061720365683158</v>
       </c>
       <c r="K8">
-        <v>1.668275444576267</v>
+        <v>0.3085370139744903</v>
       </c>
       <c r="L8">
-        <v>0.3561271370687393</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.118951430612071</v>
       </c>
       <c r="N8">
-        <v>0.8669378206847185</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.792504470112938</v>
+      </c>
+      <c r="P8">
+        <v>0.8476493741670375</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.005593821349834</v>
+        <v>0.2266019756683022</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03767248023801528</v>
+        <v>0.03099928499403859</v>
       </c>
       <c r="E9">
-        <v>0.07004703802588019</v>
+        <v>0.3751562210145565</v>
       </c>
       <c r="F9">
-        <v>0.9242084165332614</v>
+        <v>1.059238727262411</v>
       </c>
       <c r="G9">
-        <v>0.8250662276202974</v>
+        <v>0.9755250702207547</v>
       </c>
       <c r="H9">
-        <v>0.5102985547817553</v>
+        <v>0.004749071188748455</v>
       </c>
       <c r="I9">
-        <v>0.4556080800071349</v>
+        <v>0.002213962519911128</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5853725178421598</v>
       </c>
       <c r="K9">
-        <v>2.244598905299654</v>
+        <v>0.2986006006073119</v>
       </c>
       <c r="L9">
-        <v>0.4780056222064957</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.842097072095555</v>
       </c>
       <c r="N9">
-        <v>0.7608632888897553</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.062909853221001</v>
+      </c>
+      <c r="P9">
+        <v>0.7729138059112302</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.188456721837014</v>
+        <v>0.2685197711114427</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04105283462824616</v>
+        <v>0.034359775555167</v>
       </c>
       <c r="E10">
-        <v>0.06935726985852764</v>
+        <v>0.4139496743863091</v>
       </c>
       <c r="F10">
-        <v>1.055404618225381</v>
+        <v>1.202832620527658</v>
       </c>
       <c r="G10">
-        <v>0.9436165488423001</v>
+        <v>1.107595365709869</v>
       </c>
       <c r="H10">
-        <v>0.5546060197990101</v>
+        <v>0.008832746091712806</v>
       </c>
       <c r="I10">
-        <v>0.4565314522272885</v>
+        <v>0.001540716438972467</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6383595033596237</v>
       </c>
       <c r="K10">
-        <v>2.674114758574291</v>
+        <v>0.2884693072545872</v>
       </c>
       <c r="L10">
-        <v>0.5699204599003735</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.372679690625944</v>
       </c>
       <c r="N10">
-        <v>0.6896034484760314</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.224501499970501</v>
+      </c>
+      <c r="P10">
+        <v>0.7178737078163131</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.272580893955649</v>
+        <v>0.2994020921996139</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04258833490852965</v>
+        <v>0.04241212827529495</v>
       </c>
       <c r="E11">
-        <v>0.06909972868778036</v>
+        <v>0.233939456565281</v>
       </c>
       <c r="F11">
-        <v>1.117607611616094</v>
+        <v>1.140408338915648</v>
       </c>
       <c r="G11">
-        <v>1.000078138430652</v>
+        <v>1.02509624210721</v>
       </c>
       <c r="H11">
-        <v>0.5761167817948234</v>
+        <v>0.02645483390878667</v>
       </c>
       <c r="I11">
-        <v>0.4581148941609428</v>
+        <v>0.001919299172087108</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5917214270041171</v>
       </c>
       <c r="K11">
-        <v>2.871425525092604</v>
+        <v>0.2614213398898499</v>
       </c>
       <c r="L11">
-        <v>0.6124016716390344</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.523165742866922</v>
       </c>
       <c r="N11">
-        <v>0.6587679563477717</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.975214404515107</v>
+      </c>
+      <c r="P11">
+        <v>0.6787640615322312</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.304589281801299</v>
+        <v>0.3219311097661546</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04316962089561116</v>
+        <v>0.049339257514454</v>
       </c>
       <c r="E12">
-        <v>0.06901072697540878</v>
+        <v>0.1305906383736506</v>
       </c>
       <c r="F12">
-        <v>1.1415645222244</v>
+        <v>1.060974788315903</v>
       </c>
       <c r="G12">
-        <v>1.021863493928407</v>
+        <v>0.9330185798446138</v>
       </c>
       <c r="H12">
-        <v>0.5844757809046683</v>
+        <v>0.06406931234941737</v>
       </c>
       <c r="I12">
-        <v>0.458893447621044</v>
+        <v>0.001891718501650708</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5435617074876689</v>
       </c>
       <c r="K12">
-        <v>2.946471422867887</v>
+        <v>0.2443511620494743</v>
       </c>
       <c r="L12">
-        <v>0.6285979569363036</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.530619201918398</v>
       </c>
       <c r="N12">
-        <v>0.6473309834545198</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7567753128750709</v>
+      </c>
+      <c r="P12">
+        <v>0.6675408150347515</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.297688634400316</v>
+        <v>0.3351099871409815</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04304443578973149</v>
+        <v>0.05579141053075176</v>
       </c>
       <c r="E13">
-        <v>0.06902950847114098</v>
+        <v>0.07914331702571298</v>
       </c>
       <c r="F13">
-        <v>1.136386431353969</v>
+        <v>0.9612283874430432</v>
       </c>
       <c r="G13">
-        <v>1.01715295444977</v>
+        <v>0.8253809414015905</v>
       </c>
       <c r="H13">
-        <v>0.5826657215867215</v>
+        <v>0.1185900924281071</v>
       </c>
       <c r="I13">
-        <v>0.4587176190670235</v>
+        <v>0.001928498357233188</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4899119245232413</v>
       </c>
       <c r="K13">
-        <v>2.930293451220706</v>
+        <v>0.2318325202513201</v>
       </c>
       <c r="L13">
-        <v>0.6251046986752726</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.434025690742487</v>
       </c>
       <c r="N13">
-        <v>0.6497832687067771</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5519002655466565</v>
+      </c>
+      <c r="P13">
+        <v>0.6746279537786073</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.27521108495236</v>
+        <v>0.3392311863727855</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04263616024982042</v>
+        <v>0.06017535152340514</v>
       </c>
       <c r="E14">
-        <v>0.06909223294675226</v>
+        <v>0.07387483392964445</v>
       </c>
       <c r="F14">
-        <v>1.11957026710364</v>
+        <v>0.8826469076797707</v>
       </c>
       <c r="G14">
-        <v>1.001862080905212</v>
+        <v>0.7436372568550667</v>
       </c>
       <c r="H14">
-        <v>0.5768000946341374</v>
+        <v>0.1670698939457793</v>
       </c>
       <c r="I14">
-        <v>0.4581752902134824</v>
+        <v>0.002074501399619066</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4501144703777555</v>
       </c>
       <c r="K14">
-        <v>2.877592695372215</v>
+        <v>0.2251147339869721</v>
       </c>
       <c r="L14">
-        <v>0.6137318731032195</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.321078497281462</v>
       </c>
       <c r="N14">
-        <v>0.657822149987199</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4197626413728344</v>
+      </c>
+      <c r="P14">
+        <v>0.6886581759601462</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.261463320609209</v>
+        <v>0.3368763728125259</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04238606162260794</v>
+        <v>0.06104569232402923</v>
       </c>
       <c r="E15">
-        <v>0.06913177738351672</v>
+        <v>0.07632676927962834</v>
       </c>
       <c r="F15">
-        <v>1.109323457603992</v>
+        <v>0.858633677429296</v>
       </c>
       <c r="G15">
-        <v>0.9925499240042512</v>
+        <v>0.7196424060654607</v>
       </c>
       <c r="H15">
-        <v>0.5732355868763221</v>
+        <v>0.1792623113915539</v>
       </c>
       <c r="I15">
-        <v>0.4578667616771952</v>
+        <v>0.002250543846451514</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4388940390419549</v>
       </c>
       <c r="K15">
-        <v>2.845356380777503</v>
+        <v>0.2239717722179568</v>
       </c>
       <c r="L15">
-        <v>0.6067803750843694</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.273199307101379</v>
       </c>
       <c r="N15">
-        <v>0.6627778056706095</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3874834415175812</v>
+      </c>
+      <c r="P15">
+        <v>0.6948677708153035</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.182979358432107</v>
+        <v>0.3140578545378219</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04095245321525454</v>
+        <v>0.05805342121437462</v>
       </c>
       <c r="E16">
-        <v>0.06937526855843767</v>
+        <v>0.07203151851874523</v>
       </c>
       <c r="F16">
-        <v>1.051393537909959</v>
+        <v>0.8173626909459131</v>
       </c>
       <c r="G16">
-        <v>0.9399809898549876</v>
+        <v>0.6851952831095502</v>
       </c>
       <c r="H16">
-        <v>0.5532290537685753</v>
+        <v>0.1652224574855126</v>
       </c>
       <c r="I16">
-        <v>0.4564523567740721</v>
+        <v>0.002651738069792131</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4269792511798443</v>
       </c>
       <c r="K16">
-        <v>2.661263071786919</v>
+        <v>0.2299517181479054</v>
       </c>
       <c r="L16">
-        <v>0.5671587912745224</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.067948680003042</v>
       </c>
       <c r="N16">
-        <v>0.6916514732344687</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3673703479269363</v>
+      </c>
+      <c r="P16">
+        <v>0.7139918769929494</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.135084426132579</v>
+        <v>0.2943123331588566</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04007250676259844</v>
+        <v>0.05341084226766668</v>
       </c>
       <c r="E17">
-        <v>0.06953934074353985</v>
+        <v>0.06630031745132259</v>
       </c>
       <c r="F17">
-        <v>1.016528211739953</v>
+        <v>0.8271754567968799</v>
       </c>
       <c r="G17">
-        <v>0.9084079960708493</v>
+        <v>0.7017067195800308</v>
       </c>
       <c r="H17">
-        <v>0.5413154371681372</v>
+        <v>0.126877316449864</v>
       </c>
       <c r="I17">
-        <v>0.4558906545302364</v>
+        <v>0.002915868615112061</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4388187578216076</v>
       </c>
       <c r="K17">
-        <v>2.548855793301499</v>
+        <v>0.2379666786254422</v>
       </c>
       <c r="L17">
-        <v>0.5430327159771622</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.970851314826461</v>
       </c>
       <c r="N17">
-        <v>0.7097779937957149</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4184754683842584</v>
+      </c>
+      <c r="P17">
+        <v>0.7210048330600642</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.107623788488382</v>
+        <v>0.27779023227518</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0395661641887699</v>
+        <v>0.04713956218721194</v>
       </c>
       <c r="E18">
-        <v>0.06963897500208915</v>
+        <v>0.08567173849298548</v>
       </c>
       <c r="F18">
-        <v>0.9967093595090262</v>
+        <v>0.8839769236973609</v>
       </c>
       <c r="G18">
-        <v>0.8904838028401372</v>
+        <v>0.7667612658574967</v>
       </c>
       <c r="H18">
-        <v>0.5345893924964571</v>
+        <v>0.07418261956202343</v>
       </c>
       <c r="I18">
-        <v>0.4556763360924663</v>
+        <v>0.002756343921412885</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4737061865603067</v>
       </c>
       <c r="K18">
-        <v>2.484379610424014</v>
+        <v>0.2501536431014042</v>
       </c>
       <c r="L18">
-        <v>0.5292181120533002</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.95178089767694</v>
       </c>
       <c r="N18">
-        <v>0.7203518988200006</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5501944042999938</v>
+      </c>
+      <c r="P18">
+        <v>0.7223930742941533</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.098340567173835</v>
+        <v>0.2602365034853023</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03939468318189654</v>
+        <v>0.04076696760105847</v>
       </c>
       <c r="E19">
-        <v>0.06967360113589316</v>
+        <v>0.1644385561075445</v>
       </c>
       <c r="F19">
-        <v>0.9900382070244689</v>
+        <v>0.9736578251297914</v>
       </c>
       <c r="G19">
-        <v>0.884454292766776</v>
+        <v>0.8663087774400395</v>
       </c>
       <c r="H19">
-        <v>0.5323332319354961</v>
+        <v>0.0299288138781435</v>
       </c>
       <c r="I19">
-        <v>0.455622109969184</v>
+        <v>0.002822149535592011</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5243647898095247</v>
       </c>
       <c r="K19">
-        <v>2.462578051098831</v>
+        <v>0.2645829938088333</v>
       </c>
       <c r="L19">
-        <v>0.5245509945788598</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.004070853304199</v>
       </c>
       <c r="N19">
-        <v>0.723957099301682</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7602881614866774</v>
+      </c>
+      <c r="P19">
+        <v>0.7253307118475592</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.140173770577405</v>
+        <v>0.249632472683075</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04016620038751739</v>
+        <v>0.03371068879403794</v>
       </c>
       <c r="E20">
-        <v>0.06952132715094939</v>
+        <v>0.4017201598425828</v>
       </c>
       <c r="F20">
-        <v>1.020215112801907</v>
+        <v>1.158675859849154</v>
       </c>
       <c r="G20">
-        <v>0.9117443129341467</v>
+        <v>1.065771531249027</v>
       </c>
       <c r="H20">
-        <v>0.5425704559523155</v>
+        <v>0.007617866075571911</v>
       </c>
       <c r="I20">
-        <v>0.4559391110711459</v>
+        <v>0.002500361521089012</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6207906187562315</v>
       </c>
       <c r="K20">
-        <v>2.560803004174261</v>
+        <v>0.2871279341686019</v>
       </c>
       <c r="L20">
-        <v>0.5455944593906565</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.243886331832584</v>
       </c>
       <c r="N20">
-        <v>0.7078329893783355</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.182276758177579</v>
+      </c>
+      <c r="P20">
+        <v>0.7294320606627078</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.281809005256122</v>
+        <v>0.2800469448720406</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04275608415059651</v>
+        <v>0.03522266540796792</v>
       </c>
       <c r="E21">
-        <v>0.06907357417513826</v>
+        <v>0.4746126717078951</v>
       </c>
       <c r="F21">
-        <v>1.124498341812327</v>
+        <v>1.295321173032903</v>
       </c>
       <c r="G21">
-        <v>1.00634206217488</v>
+        <v>1.196377200973984</v>
       </c>
       <c r="H21">
-        <v>0.5785170264596076</v>
+        <v>0.01165950933503429</v>
       </c>
       <c r="I21">
-        <v>0.4583296318576657</v>
+        <v>0.002022280086229067</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6760702924296993</v>
       </c>
       <c r="K21">
-        <v>2.893062828040627</v>
+        <v>0.2843010190457562</v>
       </c>
       <c r="L21">
-        <v>0.6170692616242377</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.669716803134179</v>
       </c>
       <c r="N21">
-        <v>0.6554543249084297</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.368076742028052</v>
+      </c>
+      <c r="P21">
+        <v>0.692643049028046</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.375273093925784</v>
+        <v>0.3038027007482782</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04444778623821577</v>
+        <v>0.03645096132774484</v>
       </c>
       <c r="E22">
-        <v>0.06883086603049282</v>
+        <v>0.5088279380838898</v>
       </c>
       <c r="F22">
-        <v>1.195017257283595</v>
+        <v>1.381085443377856</v>
       </c>
       <c r="G22">
-        <v>1.070546588133723</v>
+        <v>1.277492482818872</v>
       </c>
       <c r="H22">
-        <v>0.6032634199657991</v>
+        <v>0.01455724803917635</v>
       </c>
       <c r="I22">
-        <v>0.4609410139766297</v>
+        <v>0.001543802262404803</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7101811758119538</v>
       </c>
       <c r="K22">
-        <v>3.112156717779953</v>
+        <v>0.2828385165473364</v>
       </c>
       <c r="L22">
-        <v>0.6644278672214057</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.939990459764203</v>
       </c>
       <c r="N22">
-        <v>0.6226258161233105</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.469212549519526</v>
+      </c>
+      <c r="P22">
+        <v>0.6689851557907964</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.325301359724904</v>
+        <v>0.2942151850643739</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04354492534433518</v>
+        <v>0.03571833014817116</v>
       </c>
       <c r="E23">
-        <v>0.06895567724232943</v>
+        <v>0.4908630621461896</v>
       </c>
       <c r="F23">
-        <v>1.15714979833173</v>
+        <v>1.337171923723247</v>
       </c>
       <c r="G23">
-        <v>1.036047456423731</v>
+        <v>1.236311793611605</v>
       </c>
       <c r="H23">
-        <v>0.5899346144720852</v>
+        <v>0.01297826701476873</v>
       </c>
       <c r="I23">
-        <v>0.459447203214026</v>
+        <v>0.001469411129491505</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6930490245785563</v>
       </c>
       <c r="K23">
-        <v>2.995025942861446</v>
+        <v>0.2850709562770959</v>
       </c>
       <c r="L23">
-        <v>0.6390878888312699</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.791055872031109</v>
       </c>
       <c r="N23">
-        <v>0.6400141839928892</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.414409627444343</v>
+      </c>
+      <c r="P23">
+        <v>0.6825053506626535</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.13787264627581</v>
+        <v>0.2523803962018292</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04012384291132776</v>
+        <v>0.03304956137477788</v>
       </c>
       <c r="E24">
-        <v>0.06952945459841731</v>
+        <v>0.4228406237502043</v>
       </c>
       <c r="F24">
-        <v>1.018547564806411</v>
+        <v>1.171209277902761</v>
       </c>
       <c r="G24">
-        <v>0.9102352583542199</v>
+        <v>1.080193809421232</v>
       </c>
       <c r="H24">
-        <v>0.5420026794356119</v>
+        <v>0.007739531696859203</v>
       </c>
       <c r="I24">
-        <v>0.4559168664379385</v>
+        <v>0.001979264431560601</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6281412135562903</v>
       </c>
       <c r="K24">
-        <v>2.555401212238735</v>
+        <v>0.2914327314397376</v>
       </c>
       <c r="L24">
-        <v>0.5444361223958367</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.239112355150837</v>
       </c>
       <c r="N24">
-        <v>0.7087118510928931</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.209433731611028</v>
+      </c>
+      <c r="P24">
+        <v>0.73347503665609</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.938976333341202</v>
+        <v>0.2063328727502522</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03642474903749715</v>
+        <v>0.03012065230067051</v>
       </c>
       <c r="E25">
-        <v>0.07034829226566108</v>
+        <v>0.3503369522246871</v>
       </c>
       <c r="F25">
-        <v>0.8778842674249887</v>
+        <v>0.9988909928363938</v>
       </c>
       <c r="G25">
-        <v>0.7834032341219768</v>
+        <v>0.9182752925913462</v>
       </c>
       <c r="H25">
-        <v>0.495068601726814</v>
+        <v>0.003478675526815023</v>
       </c>
       <c r="I25">
-        <v>0.4562268220077179</v>
+        <v>0.003124146103448133</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5616029836091911</v>
       </c>
       <c r="K25">
-        <v>2.087805256201989</v>
+        <v>0.2989247775691641</v>
       </c>
       <c r="L25">
-        <v>0.4446662832236683</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.651864266286168</v>
       </c>
       <c r="N25">
-        <v>0.7884300074158741</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.9905699294322332</v>
+      </c>
+      <c r="P25">
+        <v>0.7910269427913619</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1790235483354792</v>
+        <v>0.1554158237486831</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02774069721042238</v>
+        <v>0.02875352776601758</v>
       </c>
       <c r="E2">
-        <v>0.2981766647907236</v>
+        <v>0.2933665246747523</v>
       </c>
       <c r="F2">
-        <v>0.8815848660780858</v>
+        <v>0.8671249536172354</v>
       </c>
       <c r="G2">
-        <v>0.8090336687134254</v>
+        <v>0.7704824124233767</v>
       </c>
       <c r="H2">
-        <v>0.001348933242862671</v>
+        <v>0.00133482182385114</v>
       </c>
       <c r="I2">
-        <v>0.003652496149538997</v>
+        <v>0.002073665238586209</v>
       </c>
       <c r="J2">
-        <v>0.5179220149288852</v>
+        <v>0.5584470324100863</v>
       </c>
       <c r="K2">
-        <v>0.3086356038469287</v>
+        <v>0.2704213151966695</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1350297186811868</v>
       </c>
       <c r="M2">
-        <v>2.213796365455408</v>
+        <v>0.07357509244014171</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8289405559862999</v>
+        <v>2.231210400685939</v>
       </c>
       <c r="P2">
-        <v>0.8381601916888854</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8352943744088748</v>
+      </c>
+      <c r="R2">
+        <v>0.8050795930286636</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1557711644458522</v>
+        <v>0.1387816390486165</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02620531366353163</v>
+        <v>0.02691691985119604</v>
       </c>
       <c r="E3">
-        <v>0.2625287555460503</v>
+        <v>0.2589168215323809</v>
       </c>
       <c r="F3">
-        <v>0.8015953602942147</v>
+        <v>0.7911705522219563</v>
       </c>
       <c r="G3">
-        <v>0.7340403232223167</v>
+        <v>0.7002413453282514</v>
       </c>
       <c r="H3">
-        <v>0.0004407903471788099</v>
+        <v>0.0004498898878100288</v>
       </c>
       <c r="I3">
-        <v>0.004664872036529211</v>
+        <v>0.002649454401375984</v>
       </c>
       <c r="J3">
-        <v>0.4879819836412764</v>
+        <v>0.5274964707045342</v>
       </c>
       <c r="K3">
-        <v>0.313388361230917</v>
+        <v>0.2762207001532975</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1400390927402047</v>
       </c>
       <c r="M3">
-        <v>1.925249075541757</v>
+        <v>0.07459861156391767</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7210141625108051</v>
+        <v>1.935205678990087</v>
       </c>
       <c r="P3">
-        <v>0.8697716876706734</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7259286615415519</v>
+      </c>
+      <c r="R3">
+        <v>0.8357259636463041</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1411424850056306</v>
+        <v>0.1281425458086574</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02525177465885875</v>
+        <v>0.02578188828553252</v>
       </c>
       <c r="E4">
-        <v>0.2406601471713472</v>
+        <v>0.23776027370252</v>
       </c>
       <c r="F4">
-        <v>0.7534041879297178</v>
+        <v>0.7453036738475447</v>
       </c>
       <c r="G4">
-        <v>0.6888454114247935</v>
+        <v>0.6580281664894159</v>
       </c>
       <c r="H4">
-        <v>0.0001212662404062037</v>
+        <v>0.0001318836580985749</v>
       </c>
       <c r="I4">
-        <v>0.005411578435684739</v>
+        <v>0.003100950319643747</v>
       </c>
       <c r="J4">
-        <v>0.4701178090860907</v>
+        <v>0.5086732797346798</v>
       </c>
       <c r="K4">
-        <v>0.3163732287998844</v>
+        <v>0.2798051542082334</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.14328843639999</v>
       </c>
       <c r="M4">
-        <v>1.749061236093581</v>
+        <v>0.07557447590212174</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6549732206403718</v>
+        <v>1.754528624186293</v>
       </c>
       <c r="P4">
-        <v>0.8896758580302242</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6590125002920999</v>
+      </c>
+      <c r="R4">
+        <v>0.8550413863653166</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1343381524604013</v>
+        <v>0.1230348784190909</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02487825377693298</v>
+        <v>0.02533426457150867</v>
       </c>
       <c r="E5">
-        <v>0.231668692507931</v>
+        <v>0.2290601177161093</v>
       </c>
       <c r="F5">
-        <v>0.7334614794740375</v>
+        <v>0.7263131983761824</v>
       </c>
       <c r="G5">
-        <v>0.6700432905189899</v>
+        <v>0.6405066511955226</v>
       </c>
       <c r="H5">
-        <v>4.700338193530662E-05</v>
+        <v>5.527188389997661E-05</v>
       </c>
       <c r="I5">
-        <v>0.005827284408063793</v>
+        <v>0.003399170748732416</v>
       </c>
       <c r="J5">
-        <v>0.4626610297864886</v>
+        <v>0.5007626545918242</v>
       </c>
       <c r="K5">
-        <v>0.3172093088526236</v>
+        <v>0.2809329620832912</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1444591679565921</v>
       </c>
       <c r="M5">
-        <v>1.678561027044566</v>
+        <v>0.07600067196415772</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6282923869081856</v>
+        <v>1.682152089262814</v>
       </c>
       <c r="P5">
-        <v>0.8975876245079064</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.631964444717255</v>
+      </c>
+      <c r="R5">
+        <v>0.8627671971655024</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1322795850591802</v>
+        <v>0.1213675789373383</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0248379364956719</v>
+        <v>0.02528047179439952</v>
       </c>
       <c r="E6">
-        <v>0.2300784983351889</v>
+        <v>0.2275260036288174</v>
       </c>
       <c r="F6">
-        <v>0.7295311848056585</v>
+        <v>0.7225899356987213</v>
       </c>
       <c r="G6">
-        <v>0.6662249201193902</v>
+        <v>0.6369649108717113</v>
       </c>
       <c r="H6">
-        <v>3.787588938841679E-05</v>
+        <v>4.558290573175583E-05</v>
       </c>
       <c r="I6">
-        <v>0.006004503273547179</v>
+        <v>0.003569496828230712</v>
       </c>
       <c r="J6">
-        <v>0.461065198641009</v>
+        <v>0.4991084626113746</v>
       </c>
       <c r="K6">
-        <v>0.3168662875715906</v>
+        <v>0.2807090906032155</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1444173432571265</v>
       </c>
       <c r="M6">
-        <v>1.668201533710402</v>
+        <v>0.07600423877497775</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6240920861990205</v>
+        <v>1.671393390569818</v>
       </c>
       <c r="P6">
-        <v>0.8985203200676644</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6276869716252733</v>
+      </c>
+      <c r="R6">
+        <v>0.8637338945995419</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1385158223287135</v>
+        <v>0.1261031296018871</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02530690137170311</v>
+        <v>0.02591606712968186</v>
       </c>
       <c r="E7">
-        <v>0.2402734116277401</v>
+        <v>0.2375649304596834</v>
       </c>
       <c r="F7">
-        <v>0.7514107136482124</v>
+        <v>0.7414841853771605</v>
       </c>
       <c r="G7">
-        <v>0.6866585008947084</v>
+        <v>0.6596791810126774</v>
       </c>
       <c r="H7">
-        <v>0.0001196695842973217</v>
+        <v>0.0001293501349330928</v>
       </c>
       <c r="I7">
-        <v>0.005691626235046598</v>
+        <v>0.003415355811348775</v>
       </c>
       <c r="J7">
-        <v>0.4690215019088839</v>
+        <v>0.5003279522366313</v>
       </c>
       <c r="K7">
-        <v>0.3150676086927717</v>
+        <v>0.27849526298764</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1425615181207966</v>
       </c>
       <c r="M7">
-        <v>1.751765536103079</v>
+        <v>0.07531996203643043</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6552363130973262</v>
+        <v>1.753697477020182</v>
       </c>
       <c r="P7">
-        <v>0.8887374375477446</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6586718404053045</v>
+      </c>
+      <c r="R7">
+        <v>0.8540101155398814</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1676899143567425</v>
+        <v>0.1476716144874359</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02729504745350653</v>
+        <v>0.02848461109256206</v>
       </c>
       <c r="E8">
-        <v>0.285524025357681</v>
+        <v>0.2817203414074072</v>
       </c>
       <c r="F8">
-        <v>0.8515191227194094</v>
+        <v>0.8320733788104633</v>
       </c>
       <c r="G8">
-        <v>0.7804285216287496</v>
+        <v>0.7559761923490811</v>
       </c>
       <c r="H8">
-        <v>0.0009827230664498643</v>
+        <v>0.0009714543074674786</v>
       </c>
       <c r="I8">
-        <v>0.004305899883514819</v>
+        <v>0.002631982185184789</v>
       </c>
       <c r="J8">
-        <v>0.5061720365683158</v>
+        <v>0.5223940569585324</v>
       </c>
       <c r="K8">
-        <v>0.3085370139744903</v>
+        <v>0.2703263145106796</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1356787077107384</v>
       </c>
       <c r="M8">
-        <v>2.118951430612071</v>
+        <v>0.07331762552311272</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.792504470112938</v>
+        <v>2.122463204082095</v>
       </c>
       <c r="P8">
-        <v>0.8476493741670375</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7964348215159873</v>
+      </c>
+      <c r="R8">
+        <v>0.8137140678226631</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2266019756683022</v>
+        <v>0.1895620633079176</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03099928499403859</v>
+        <v>0.03305516251311857</v>
       </c>
       <c r="E9">
-        <v>0.3751562210145565</v>
+        <v>0.3683471216694869</v>
       </c>
       <c r="F9">
-        <v>1.059238727262411</v>
+        <v>1.026724426036282</v>
       </c>
       <c r="G9">
-        <v>0.9755250702207547</v>
+        <v>0.9430050613687655</v>
       </c>
       <c r="H9">
-        <v>0.004749071188748455</v>
+        <v>0.004585458564352329</v>
       </c>
       <c r="I9">
-        <v>0.002213962519911128</v>
+        <v>0.001426747940342921</v>
       </c>
       <c r="J9">
-        <v>0.5853725178421598</v>
+        <v>0.5950696874296995</v>
       </c>
       <c r="K9">
-        <v>0.2986006006073119</v>
+        <v>0.2571777428613569</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.124915655386852</v>
       </c>
       <c r="M9">
-        <v>2.842097072095555</v>
+        <v>0.07280025681940394</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.062909853221001</v>
+        <v>2.861513104027296</v>
       </c>
       <c r="P9">
-        <v>0.7729138059112302</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.069931400639753</v>
+      </c>
+      <c r="R9">
+        <v>0.7411604942556815</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2685197711114427</v>
+        <v>0.2209900194891929</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.034359775555167</v>
+        <v>0.03763656269680737</v>
       </c>
       <c r="E10">
-        <v>0.4139496743863091</v>
+        <v>0.4060415044079662</v>
       </c>
       <c r="F10">
-        <v>1.202832620527658</v>
+        <v>1.148998459514459</v>
       </c>
       <c r="G10">
-        <v>1.107595365709869</v>
+        <v>1.092678616248662</v>
       </c>
       <c r="H10">
-        <v>0.008832746091712806</v>
+        <v>0.008445602277486142</v>
       </c>
       <c r="I10">
-        <v>0.001540716438972467</v>
+        <v>0.001261941991485216</v>
       </c>
       <c r="J10">
-        <v>0.6383595033596237</v>
+        <v>0.6004638728171159</v>
       </c>
       <c r="K10">
-        <v>0.2884693072545872</v>
+        <v>0.2443996983313994</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1167498945416696</v>
       </c>
       <c r="M10">
-        <v>3.372679690625944</v>
+        <v>0.07271059697661109</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.224501499970501</v>
+        <v>3.382483927698274</v>
       </c>
       <c r="P10">
-        <v>0.7178737078163131</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.230054670344543</v>
+      </c>
+      <c r="R10">
+        <v>0.6881881309468176</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2994020921996139</v>
+        <v>0.256246350715557</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04241212827529495</v>
+        <v>0.04767788455825439</v>
       </c>
       <c r="E11">
-        <v>0.233939456565281</v>
+        <v>0.2283961602512115</v>
       </c>
       <c r="F11">
-        <v>1.140408338915648</v>
+        <v>1.065805224267876</v>
       </c>
       <c r="G11">
-        <v>1.02509624210721</v>
+        <v>1.061353395909279</v>
       </c>
       <c r="H11">
-        <v>0.02645483390878667</v>
+        <v>0.02599269411423677</v>
       </c>
       <c r="I11">
-        <v>0.001919299172087108</v>
+        <v>0.001852553310062177</v>
       </c>
       <c r="J11">
-        <v>0.5917214270041171</v>
+        <v>0.4779848479313671</v>
       </c>
       <c r="K11">
-        <v>0.2614213398898499</v>
+        <v>0.2219977744520083</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1080140729277321</v>
       </c>
       <c r="M11">
-        <v>3.523165742866922</v>
+        <v>0.06560319259113001</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.975214404515107</v>
+        <v>3.482841242943209</v>
       </c>
       <c r="P11">
-        <v>0.6787640615322312</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.972924347326753</v>
+      </c>
+      <c r="R11">
+        <v>0.6611560587698158</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3219311097661546</v>
+        <v>0.283795277530217</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.049339257514454</v>
+        <v>0.05582380025989409</v>
       </c>
       <c r="E12">
-        <v>0.1305906383736506</v>
+        <v>0.1256595547714952</v>
       </c>
       <c r="F12">
-        <v>1.060974788315903</v>
+        <v>0.9811585160544922</v>
       </c>
       <c r="G12">
-        <v>0.9330185798446138</v>
+        <v>0.9925352968374312</v>
       </c>
       <c r="H12">
-        <v>0.06406931234941737</v>
+        <v>0.063611271863806</v>
       </c>
       <c r="I12">
-        <v>0.001891718501650708</v>
+        <v>0.00184301287412314</v>
       </c>
       <c r="J12">
-        <v>0.5435617074876689</v>
+        <v>0.4060560769376025</v>
       </c>
       <c r="K12">
-        <v>0.2443511620494743</v>
+        <v>0.2093684749261744</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1038041135025285</v>
       </c>
       <c r="M12">
-        <v>3.530619201918398</v>
+        <v>0.06073389357855952</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7567753128750709</v>
+        <v>3.46279155806775</v>
       </c>
       <c r="P12">
-        <v>0.6675408150347515</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7513272859903495</v>
+      </c>
+      <c r="R12">
+        <v>0.6599417803885359</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3351099871409815</v>
+        <v>0.3026215267521053</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05579141053075176</v>
+        <v>0.06233441486391911</v>
       </c>
       <c r="E13">
-        <v>0.07914331702571298</v>
+        <v>0.07415505548157597</v>
       </c>
       <c r="F13">
-        <v>0.9612283874430432</v>
+        <v>0.8916569695111178</v>
       </c>
       <c r="G13">
-        <v>0.8253809414015905</v>
+        <v>0.8806055471368524</v>
       </c>
       <c r="H13">
-        <v>0.1185900924281071</v>
+        <v>0.1181996046413616</v>
       </c>
       <c r="I13">
-        <v>0.001928498357233188</v>
+        <v>0.001821581002127814</v>
       </c>
       <c r="J13">
-        <v>0.4899119245232413</v>
+        <v>0.3727076194441992</v>
       </c>
       <c r="K13">
-        <v>0.2318325202513201</v>
+        <v>0.2017014779291726</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1016493318312155</v>
       </c>
       <c r="M13">
-        <v>3.434025690742487</v>
+        <v>0.05695596856312246</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5519002655466565</v>
+        <v>3.36297006410939</v>
       </c>
       <c r="P13">
-        <v>0.6746279537786073</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5468479754421551</v>
+      </c>
+      <c r="R13">
+        <v>0.673884504599382</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3392311863727855</v>
+        <v>0.3111003313162826</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06017535152340514</v>
+        <v>0.06611803702700314</v>
       </c>
       <c r="E14">
-        <v>0.07387483392964445</v>
+        <v>0.06894236509777674</v>
       </c>
       <c r="F14">
-        <v>0.8826469076797707</v>
+        <v>0.8262379063871919</v>
       </c>
       <c r="G14">
-        <v>0.7436372568550667</v>
+        <v>0.7853840247359614</v>
       </c>
       <c r="H14">
-        <v>0.1670698939457793</v>
+        <v>0.166745901649918</v>
       </c>
       <c r="I14">
-        <v>0.002074501399619066</v>
+        <v>0.001904040191882395</v>
       </c>
       <c r="J14">
-        <v>0.4501144703777555</v>
+        <v>0.3633638953526912</v>
       </c>
       <c r="K14">
-        <v>0.2251147339869721</v>
+        <v>0.1983042649369855</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.100832952226678</v>
       </c>
       <c r="M14">
-        <v>3.321078497281462</v>
+        <v>0.05484220388920491</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4197626413728344</v>
+        <v>3.257993640098675</v>
       </c>
       <c r="P14">
-        <v>0.6886581759601462</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4160250975029669</v>
+      </c>
+      <c r="R14">
+        <v>0.6901455461168418</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3368763728125259</v>
+        <v>0.3100250563834237</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06104569232402923</v>
+        <v>0.06656986577856827</v>
       </c>
       <c r="E15">
-        <v>0.07632676927962834</v>
+        <v>0.07153828473500212</v>
       </c>
       <c r="F15">
-        <v>0.858633677429296</v>
+        <v>0.8080370463179776</v>
       </c>
       <c r="G15">
-        <v>0.7196424060654607</v>
+        <v>0.7539050573362971</v>
       </c>
       <c r="H15">
-        <v>0.1792623113915539</v>
+        <v>0.1789664342294088</v>
       </c>
       <c r="I15">
-        <v>0.002250543846451514</v>
+        <v>0.002066156568174549</v>
       </c>
       <c r="J15">
-        <v>0.4388940390419549</v>
+        <v>0.3666050576558177</v>
       </c>
       <c r="K15">
-        <v>0.2239717722179568</v>
+        <v>0.1980579872908308</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1008329067441922</v>
       </c>
       <c r="M15">
-        <v>3.273199307101379</v>
+        <v>0.05444776927531247</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3874834415175812</v>
+        <v>3.216294779581716</v>
       </c>
       <c r="P15">
-        <v>0.6948677708153035</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.384425447854305</v>
+      </c>
+      <c r="R15">
+        <v>0.6959813402115493</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3140578545378219</v>
+        <v>0.2882671542109563</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05805342121437462</v>
+        <v>0.06147465593021195</v>
       </c>
       <c r="E16">
-        <v>0.07203151851874523</v>
+        <v>0.06821165725308642</v>
       </c>
       <c r="F16">
-        <v>0.8173626909459131</v>
+        <v>0.7886574697368047</v>
       </c>
       <c r="G16">
-        <v>0.6851952831095502</v>
+        <v>0.6844031504530648</v>
       </c>
       <c r="H16">
-        <v>0.1652224574855126</v>
+        <v>0.1650394772318577</v>
       </c>
       <c r="I16">
-        <v>0.002651738069792131</v>
+        <v>0.002298546728284556</v>
       </c>
       <c r="J16">
-        <v>0.4269792511798443</v>
+        <v>0.4165371465402359</v>
       </c>
       <c r="K16">
-        <v>0.2299517181479054</v>
+        <v>0.2045843596319585</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1031814406826257</v>
       </c>
       <c r="M16">
-        <v>3.067948680003042</v>
+        <v>0.05600657049797331</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3673703479269363</v>
+        <v>3.046504435509291</v>
       </c>
       <c r="P16">
-        <v>0.7139918769929494</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3675727736358709</v>
+      </c>
+      <c r="R16">
+        <v>0.7084184422286555</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2943123331588566</v>
+        <v>0.2675169126960668</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05341084226766668</v>
+        <v>0.05595140279180555</v>
       </c>
       <c r="E17">
-        <v>0.06630031745132259</v>
+        <v>0.06267869795325742</v>
       </c>
       <c r="F17">
-        <v>0.8271754567968799</v>
+        <v>0.8063300825729698</v>
       </c>
       <c r="G17">
-        <v>0.7017067195800308</v>
+        <v>0.6849657587695077</v>
       </c>
       <c r="H17">
-        <v>0.126877316449864</v>
+        <v>0.1267389432717465</v>
       </c>
       <c r="I17">
-        <v>0.002915868615112061</v>
+        <v>0.002465643982498378</v>
       </c>
       <c r="J17">
-        <v>0.4388187578216076</v>
+        <v>0.4550762599935609</v>
       </c>
       <c r="K17">
-        <v>0.2379666786254422</v>
+        <v>0.2114613013671018</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1057453837975535</v>
       </c>
       <c r="M17">
-        <v>2.970851314826461</v>
+        <v>0.05814417988721754</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4184754683842584</v>
+        <v>2.967055080803163</v>
       </c>
       <c r="P17">
-        <v>0.7210048330600642</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4204896306048553</v>
+      </c>
+      <c r="R17">
+        <v>0.7110370701392839</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.27779023227518</v>
+        <v>0.2473679876447505</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04713956218721194</v>
+        <v>0.04937234268102486</v>
       </c>
       <c r="E18">
-        <v>0.08567173849298548</v>
+        <v>0.08147736333995859</v>
       </c>
       <c r="F18">
-        <v>0.8839769236973609</v>
+        <v>0.8637634547581143</v>
       </c>
       <c r="G18">
-        <v>0.7667612658574967</v>
+        <v>0.7401715260042465</v>
       </c>
       <c r="H18">
-        <v>0.07418261956202343</v>
+        <v>0.07405118563313096</v>
       </c>
       <c r="I18">
-        <v>0.002756343921412885</v>
+        <v>0.0022273605520855</v>
       </c>
       <c r="J18">
-        <v>0.4737061865603067</v>
+        <v>0.5003442168523549</v>
       </c>
       <c r="K18">
-        <v>0.2501536431014042</v>
+        <v>0.2207842729217724</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1093099789652197</v>
       </c>
       <c r="M18">
-        <v>2.95178089767694</v>
+        <v>0.06139948478519397</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5501944042999938</v>
+        <v>2.960412521298935</v>
       </c>
       <c r="P18">
-        <v>0.7223930742941533</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5540047779647423</v>
+      </c>
+      <c r="R18">
+        <v>0.7081853565081069</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2602365034853023</v>
+        <v>0.2250775590585334</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04076696760105847</v>
+        <v>0.04295576210702734</v>
       </c>
       <c r="E19">
-        <v>0.1644385561075445</v>
+        <v>0.1589618417634107</v>
       </c>
       <c r="F19">
-        <v>0.9736578251297914</v>
+        <v>0.9497969114537597</v>
       </c>
       <c r="G19">
-        <v>0.8663087774400395</v>
+        <v>0.8325987518066</v>
       </c>
       <c r="H19">
-        <v>0.0299288138781435</v>
+        <v>0.02977213532099654</v>
       </c>
       <c r="I19">
-        <v>0.002822149535592011</v>
+        <v>0.00234477516279874</v>
       </c>
       <c r="J19">
-        <v>0.5243647898095247</v>
+        <v>0.5522218669095196</v>
       </c>
       <c r="K19">
-        <v>0.2645829938088333</v>
+        <v>0.2311579580720089</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1132742578449859</v>
       </c>
       <c r="M19">
-        <v>3.004070853304199</v>
+        <v>0.0652230195087391</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7602881614866774</v>
+        <v>3.022727886217922</v>
       </c>
       <c r="P19">
-        <v>0.7253307118475592</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7661291368506085</v>
+      </c>
+      <c r="R19">
+        <v>0.7061073666655915</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.249632472683075</v>
+        <v>0.2053390378071214</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03371068879403794</v>
+        <v>0.03632218899916495</v>
       </c>
       <c r="E20">
-        <v>0.4017201598425828</v>
+        <v>0.3935922299601913</v>
       </c>
       <c r="F20">
-        <v>1.158675859849154</v>
+        <v>1.118259505154313</v>
       </c>
       <c r="G20">
-        <v>1.065771531249027</v>
+        <v>1.033157311518522</v>
       </c>
       <c r="H20">
-        <v>0.007617866075571911</v>
+        <v>0.007319701188102545</v>
       </c>
       <c r="I20">
-        <v>0.002500361521089012</v>
+        <v>0.002240130154073761</v>
       </c>
       <c r="J20">
-        <v>0.6207906187562315</v>
+        <v>0.6212428412678292</v>
       </c>
       <c r="K20">
-        <v>0.2871279341686019</v>
+        <v>0.2453426956511215</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1179260520888068</v>
       </c>
       <c r="M20">
-        <v>3.243886331832584</v>
+        <v>0.07171538876979611</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.182276758177579</v>
+        <v>3.267740052677823</v>
       </c>
       <c r="P20">
-        <v>0.7294320606627078</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.190137844791508</v>
+      </c>
+      <c r="R20">
+        <v>0.7006338375240868</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2800469448720406</v>
+        <v>0.2310771913266336</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03522266540796792</v>
+        <v>0.04059335752823756</v>
       </c>
       <c r="E21">
-        <v>0.4746126717078951</v>
+        <v>0.4685751928773669</v>
       </c>
       <c r="F21">
-        <v>1.295321173032903</v>
+        <v>1.198428438457768</v>
       </c>
       <c r="G21">
-        <v>1.196377200973984</v>
+        <v>1.250474099967505</v>
       </c>
       <c r="H21">
-        <v>0.01165950933503429</v>
+        <v>0.01100587363148073</v>
       </c>
       <c r="I21">
-        <v>0.002022280086229067</v>
+        <v>0.002089773989084165</v>
       </c>
       <c r="J21">
-        <v>0.6760702924296993</v>
+        <v>0.5119947700244722</v>
       </c>
       <c r="K21">
-        <v>0.2843010190457562</v>
+        <v>0.2357743974173712</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1122990133153641</v>
       </c>
       <c r="M21">
-        <v>3.669716803134179</v>
+        <v>0.07194226766142009</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.368076742028052</v>
+        <v>3.622536361173331</v>
       </c>
       <c r="P21">
-        <v>0.692643049028046</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.364017476364111</v>
+      </c>
+      <c r="R21">
+        <v>0.6610067403403757</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3038027007482782</v>
+        <v>0.2520023940748786</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03645096132774484</v>
+        <v>0.04390053976319308</v>
       </c>
       <c r="E22">
-        <v>0.5088279380838898</v>
+        <v>0.5046684338136416</v>
       </c>
       <c r="F22">
-        <v>1.381085443377856</v>
+        <v>1.243706481131099</v>
       </c>
       <c r="G22">
-        <v>1.277492482818872</v>
+        <v>1.398445612457692</v>
       </c>
       <c r="H22">
-        <v>0.01455724803917635</v>
+        <v>0.01362423939331048</v>
       </c>
       <c r="I22">
-        <v>0.001543802262404803</v>
+        <v>0.001714049468254153</v>
       </c>
       <c r="J22">
-        <v>0.7101811758119538</v>
+        <v>0.4386222607984962</v>
       </c>
       <c r="K22">
-        <v>0.2828385165473364</v>
+        <v>0.2296322064116847</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1089146707208526</v>
       </c>
       <c r="M22">
-        <v>3.939990459764203</v>
+        <v>0.07230998989205339</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.469212549519526</v>
+        <v>3.839668616507765</v>
       </c>
       <c r="P22">
-        <v>0.6689851557907964</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.456061332079187</v>
+      </c>
+      <c r="R22">
+        <v>0.6359502269753243</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2942151850643739</v>
+        <v>0.2427570518773905</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03571833014817116</v>
+        <v>0.04177213578081052</v>
       </c>
       <c r="E23">
-        <v>0.4908630621461896</v>
+        <v>0.4851677423858192</v>
       </c>
       <c r="F23">
-        <v>1.337171923723247</v>
+        <v>1.226567355148163</v>
       </c>
       <c r="G23">
-        <v>1.236311793611605</v>
+        <v>1.310317712412768</v>
       </c>
       <c r="H23">
-        <v>0.01297826701476873</v>
+        <v>0.01221535197488077</v>
       </c>
       <c r="I23">
-        <v>0.001469411129491505</v>
+        <v>0.001530568614289685</v>
       </c>
       <c r="J23">
-        <v>0.6930490245785563</v>
+        <v>0.4934485011862932</v>
       </c>
       <c r="K23">
-        <v>0.2850709562770959</v>
+        <v>0.2344020510095302</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1111569210480967</v>
       </c>
       <c r="M23">
-        <v>3.791055872031109</v>
+        <v>0.07276849725501577</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.414409627444343</v>
+        <v>3.728696095258272</v>
       </c>
       <c r="P23">
-        <v>0.6825053506626535</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.407775131783978</v>
+      </c>
+      <c r="R23">
+        <v>0.6500155462880222</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2523803962018292</v>
+        <v>0.2069367754918687</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03304956137477788</v>
+        <v>0.03562504764420638</v>
       </c>
       <c r="E24">
-        <v>0.4228406237502043</v>
+        <v>0.414451893307465</v>
       </c>
       <c r="F24">
-        <v>1.171209277902761</v>
+        <v>1.130360794315877</v>
       </c>
       <c r="G24">
-        <v>1.080193809421232</v>
+        <v>1.045935086218407</v>
       </c>
       <c r="H24">
-        <v>0.007739531696859203</v>
+        <v>0.007436087663784785</v>
       </c>
       <c r="I24">
-        <v>0.001979264431560601</v>
+        <v>0.001630051408444189</v>
       </c>
       <c r="J24">
-        <v>0.6281412135562903</v>
+        <v>0.629476956712864</v>
       </c>
       <c r="K24">
-        <v>0.2914327314397376</v>
+        <v>0.2485738046209107</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1191416320958609</v>
       </c>
       <c r="M24">
-        <v>3.239112355150837</v>
+        <v>0.07292693716938103</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.209433731611028</v>
+        <v>3.264889585366348</v>
       </c>
       <c r="P24">
-        <v>0.73347503665609</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.21770678081468</v>
+      </c>
+      <c r="R24">
+        <v>0.703294160863408</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2063328727502522</v>
+        <v>0.1743186743242831</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03012065230067051</v>
+        <v>0.03180966520094941</v>
       </c>
       <c r="E25">
-        <v>0.3503369522246871</v>
+        <v>0.3441667006468876</v>
       </c>
       <c r="F25">
-        <v>0.9988909928363938</v>
+        <v>0.9732002543468496</v>
       </c>
       <c r="G25">
-        <v>0.9182752925913462</v>
+        <v>0.8828604124490909</v>
       </c>
       <c r="H25">
-        <v>0.003478675526815023</v>
+        <v>0.003376825023026608</v>
       </c>
       <c r="I25">
-        <v>0.003124146103448133</v>
+        <v>0.002193533802475223</v>
       </c>
       <c r="J25">
-        <v>0.5616029836091911</v>
+        <v>0.5838771619520742</v>
       </c>
       <c r="K25">
-        <v>0.2989247775691641</v>
+        <v>0.259165717445768</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1270194492382952</v>
       </c>
       <c r="M25">
-        <v>2.651864266286168</v>
+        <v>0.07213754439432485</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9905699294322332</v>
+        <v>2.671308256647563</v>
       </c>
       <c r="P25">
-        <v>0.7910269427913619</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.9974905674235757</v>
+      </c>
+      <c r="R25">
+        <v>0.7594288231270627</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
